--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6452,28 +6452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.5652625480602</v>
+        <v>275.6377730795181</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.8918552214015</v>
+        <v>377.1397614077165</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.6979658810765</v>
+        <v>341.1460718979429</v>
       </c>
       <c r="AD2" t="n">
-        <v>223565.2625480602</v>
+        <v>275637.7730795181</v>
       </c>
       <c r="AE2" t="n">
-        <v>305891.8552214015</v>
+        <v>377139.7614077165</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.840734694000457e-06</v>
+        <v>3.11185333047049e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.00694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>276697.9658810765</v>
+        <v>341146.0718979429</v>
       </c>
     </row>
     <row r="3">
@@ -6558,28 +6558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.4254722668737</v>
+        <v>216.4125524352055</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.974185095314</v>
+        <v>296.1052016896992</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.5029646231338</v>
+        <v>267.8453368267824</v>
       </c>
       <c r="AD3" t="n">
-        <v>164425.4722668737</v>
+        <v>216412.5524352055</v>
       </c>
       <c r="AE3" t="n">
-        <v>224974.185095314</v>
+        <v>296105.2016896993</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.277827780315017e-06</v>
+        <v>3.850780879783717e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.897569444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>203502.9646231338</v>
+        <v>267845.3368267824</v>
       </c>
     </row>
     <row r="4">
@@ -6664,28 +6664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>156.4890244462038</v>
+        <v>198.061709918506</v>
       </c>
       <c r="AB4" t="n">
-        <v>214.1151870557121</v>
+        <v>270.9967693763292</v>
       </c>
       <c r="AC4" t="n">
-        <v>193.6803341157286</v>
+        <v>245.1332180534863</v>
       </c>
       <c r="AD4" t="n">
-        <v>156489.0244462038</v>
+        <v>198061.709918506</v>
       </c>
       <c r="AE4" t="n">
-        <v>214115.1870557121</v>
+        <v>270996.7693763291</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.455643391312792e-06</v>
+        <v>4.151386992710566e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.255208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>193680.3341157286</v>
+        <v>245133.2180534863</v>
       </c>
     </row>
     <row r="5">
@@ -6770,28 +6770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>153.5490693907948</v>
+        <v>195.121754863097</v>
       </c>
       <c r="AB5" t="n">
-        <v>210.0926108472404</v>
+        <v>266.9741931678575</v>
       </c>
       <c r="AC5" t="n">
-        <v>190.041666934871</v>
+        <v>241.4945508726287</v>
       </c>
       <c r="AD5" t="n">
-        <v>153549.0693907948</v>
+        <v>195121.754863097</v>
       </c>
       <c r="AE5" t="n">
-        <v>210092.6108472404</v>
+        <v>266974.1931678575</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.531386586073592e-06</v>
+        <v>4.279434621543281e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.003472222222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>190041.666934871</v>
+        <v>241494.5508726287</v>
       </c>
     </row>
     <row r="6">
@@ -6876,28 +6876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>140.570447236715</v>
+        <v>182.2283840550377</v>
       </c>
       <c r="AB6" t="n">
-        <v>192.3346874396383</v>
+        <v>249.3329144129046</v>
       </c>
       <c r="AC6" t="n">
-        <v>173.9785348138827</v>
+        <v>225.5369310023527</v>
       </c>
       <c r="AD6" t="n">
-        <v>140570.447236715</v>
+        <v>182228.3840550377</v>
       </c>
       <c r="AE6" t="n">
-        <v>192334.6874396382</v>
+        <v>249332.9144129046</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.598703496301681e-06</v>
+        <v>4.393237198293219e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.795138888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>173978.5348138827</v>
+        <v>225536.9310023527</v>
       </c>
     </row>
     <row r="7">
@@ -6982,28 +6982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>139.0281049859665</v>
+        <v>180.6860418042893</v>
       </c>
       <c r="AB7" t="n">
-        <v>190.2243867288274</v>
+        <v>247.2226137020937</v>
       </c>
       <c r="AC7" t="n">
-        <v>172.0696382410853</v>
+        <v>223.6280344295553</v>
       </c>
       <c r="AD7" t="n">
-        <v>139028.1049859665</v>
+        <v>180686.0418042893</v>
       </c>
       <c r="AE7" t="n">
-        <v>190224.3867288274</v>
+        <v>247222.6137020937</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.63654008141948e-06</v>
+        <v>4.457201822742474e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.682291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>172069.6382410853</v>
+        <v>223628.0344295553</v>
       </c>
     </row>
     <row r="8">
@@ -7088,28 +7088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>138.2729297108407</v>
+        <v>179.9308665291634</v>
       </c>
       <c r="AB8" t="n">
-        <v>189.1911226014189</v>
+        <v>246.1893495746853</v>
       </c>
       <c r="AC8" t="n">
-        <v>171.1349873918011</v>
+        <v>222.693383580271</v>
       </c>
       <c r="AD8" t="n">
-        <v>138272.9297108407</v>
+        <v>179930.8665291634</v>
       </c>
       <c r="AE8" t="n">
-        <v>189191.1226014189</v>
+        <v>246189.3495746852</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.654279627804136e-06</v>
+        <v>4.487191406074635e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.630208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>171134.9873918011</v>
+        <v>222693.383580271</v>
       </c>
     </row>
     <row r="9">
@@ -7194,28 +7194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>137.6757666275533</v>
+        <v>179.333703445876</v>
       </c>
       <c r="AB9" t="n">
-        <v>188.3740577258896</v>
+        <v>245.372284699156</v>
       </c>
       <c r="AC9" t="n">
-        <v>170.3959020412343</v>
+        <v>221.9542982297042</v>
       </c>
       <c r="AD9" t="n">
-        <v>137675.7666275533</v>
+        <v>179333.703445876</v>
       </c>
       <c r="AE9" t="n">
-        <v>188374.0577258896</v>
+        <v>245372.2846991559</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.667607629101029e-06</v>
+        <v>4.509723053551825e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.595486111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>170395.9020412343</v>
+        <v>221954.2982297042</v>
       </c>
     </row>
     <row r="10">
@@ -7300,28 +7300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>136.7921042693987</v>
+        <v>178.4500410877214</v>
       </c>
       <c r="AB10" t="n">
-        <v>187.1649919030312</v>
+        <v>244.1632188762975</v>
       </c>
       <c r="AC10" t="n">
-        <v>169.3022277635746</v>
+        <v>220.8606239520445</v>
       </c>
       <c r="AD10" t="n">
-        <v>136792.1042693987</v>
+        <v>178450.0410877214</v>
       </c>
       <c r="AE10" t="n">
-        <v>187164.9919030312</v>
+        <v>244163.2188762975</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.689035133813021e-06</v>
+        <v>4.545947313418831e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.534722222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>169302.2277635746</v>
+        <v>220860.6239520445</v>
       </c>
     </row>
     <row r="11">
@@ -7406,28 +7406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>136.0553313343431</v>
+        <v>177.5426759520736</v>
       </c>
       <c r="AB11" t="n">
-        <v>186.1569066691607</v>
+        <v>242.9217218675803</v>
       </c>
       <c r="AC11" t="n">
-        <v>168.3903527695679</v>
+        <v>219.7376136753868</v>
       </c>
       <c r="AD11" t="n">
-        <v>136055.3313343431</v>
+        <v>177542.6759520736</v>
       </c>
       <c r="AE11" t="n">
-        <v>186156.9066691608</v>
+        <v>242921.7218675803</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.708361902768936e-06</v>
+        <v>4.578620175259658e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.482638888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>168390.3527695679</v>
+        <v>219737.6136753868</v>
       </c>
     </row>
     <row r="12">
@@ -7512,28 +7512,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>135.6762229774051</v>
+        <v>177.1635675951356</v>
       </c>
       <c r="AB12" t="n">
-        <v>185.6381938901181</v>
+        <v>242.4030090885376</v>
       </c>
       <c r="AC12" t="n">
-        <v>167.9211452101389</v>
+        <v>219.2684061159578</v>
       </c>
       <c r="AD12" t="n">
-        <v>135676.2229774051</v>
+        <v>177163.5675951356</v>
       </c>
       <c r="AE12" t="n">
-        <v>185638.1938901182</v>
+        <v>242403.0090885376</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.707054778298487e-06</v>
+        <v>4.576410416487815e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.482638888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>167921.1452101389</v>
+        <v>219268.4061159578</v>
       </c>
     </row>
     <row r="13">
@@ -7618,28 +7618,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>135.0750373569985</v>
+        <v>176.562381974729</v>
       </c>
       <c r="AB13" t="n">
-        <v>184.8156252018406</v>
+        <v>241.58044040026</v>
       </c>
       <c r="AC13" t="n">
-        <v>167.1770813229879</v>
+        <v>218.5243422288068</v>
       </c>
       <c r="AD13" t="n">
-        <v>135075.0373569985</v>
+        <v>176562.381974729</v>
       </c>
       <c r="AE13" t="n">
-        <v>184815.6252018406</v>
+        <v>241580.44040026</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.726801694405617e-06</v>
+        <v>4.609793557933879e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.430555555555555</v>
       </c>
       <c r="AH13" t="n">
-        <v>167177.0813229879</v>
+        <v>218524.3422288068</v>
       </c>
     </row>
     <row r="14">
@@ -7724,28 +7724,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>134.7781705127517</v>
+        <v>176.2655151304823</v>
       </c>
       <c r="AB14" t="n">
-        <v>184.4094388887015</v>
+        <v>241.174254087121</v>
       </c>
       <c r="AC14" t="n">
-        <v>166.8096608614887</v>
+        <v>218.1569217673076</v>
       </c>
       <c r="AD14" t="n">
-        <v>134778.1705127517</v>
+        <v>176265.5151304823</v>
       </c>
       <c r="AE14" t="n">
-        <v>184409.4388887016</v>
+        <v>241174.254087121</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.726731669880415e-06</v>
+        <v>4.609675177999673e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.430555555555555</v>
       </c>
       <c r="AH14" t="n">
-        <v>166809.6608614887</v>
+        <v>218156.9217673076</v>
       </c>
     </row>
     <row r="15">
@@ -7830,28 +7830,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>134.143191778169</v>
+        <v>175.6305363958996</v>
       </c>
       <c r="AB15" t="n">
-        <v>183.5406329707612</v>
+        <v>240.3054481691807</v>
       </c>
       <c r="AC15" t="n">
-        <v>166.0237725609795</v>
+        <v>217.3710334667984</v>
       </c>
       <c r="AD15" t="n">
-        <v>134143.191778169</v>
+        <v>175630.5363958996</v>
       </c>
       <c r="AE15" t="n">
-        <v>183540.6329707612</v>
+        <v>240305.4481691807</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.742207089950187e-06</v>
+        <v>4.635837143459177e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.387152777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>166023.7725609795</v>
+        <v>217371.0334667984</v>
       </c>
     </row>
     <row r="16">
@@ -7936,28 +7936,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>134.0160721629928</v>
+        <v>175.5034167807233</v>
       </c>
       <c r="AB16" t="n">
-        <v>183.3667023051555</v>
+        <v>240.131517503575</v>
       </c>
       <c r="AC16" t="n">
-        <v>165.866441593986</v>
+        <v>217.2137024998049</v>
       </c>
       <c r="AD16" t="n">
-        <v>134016.0721629928</v>
+        <v>175503.4167807233</v>
       </c>
       <c r="AE16" t="n">
-        <v>183366.7023051555</v>
+        <v>240131.517503575</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.74363092196264e-06</v>
+        <v>4.638244202121364e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.387152777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>165866.441593986</v>
+        <v>217213.7024998049</v>
       </c>
     </row>
     <row r="17">
@@ -8042,28 +8042,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>133.6246097137</v>
+        <v>175.1119543314306</v>
       </c>
       <c r="AB17" t="n">
-        <v>182.8310861119291</v>
+        <v>239.5959013103486</v>
       </c>
       <c r="AC17" t="n">
-        <v>165.3819438584989</v>
+        <v>216.7292047643178</v>
       </c>
       <c r="AD17" t="n">
-        <v>133624.6097137</v>
+        <v>175111.9543314306</v>
       </c>
       <c r="AE17" t="n">
-        <v>182831.0861119291</v>
+        <v>239595.9013103486</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.746151804869933e-06</v>
+        <v>4.642505879752776e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.378472222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>165381.9438584989</v>
+        <v>216729.2047643178</v>
       </c>
     </row>
     <row r="18">
@@ -8148,28 +8148,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>133.1963040054104</v>
+        <v>174.6836486231409</v>
       </c>
       <c r="AB18" t="n">
-        <v>182.2450593463331</v>
+        <v>239.0098745447526</v>
       </c>
       <c r="AC18" t="n">
-        <v>164.8518466649174</v>
+        <v>216.1991075707363</v>
       </c>
       <c r="AD18" t="n">
-        <v>133196.3040054103</v>
+        <v>174683.6486231409</v>
       </c>
       <c r="AE18" t="n">
-        <v>182245.0593463331</v>
+        <v>239009.8745447526</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.74444787475667e-06</v>
+        <v>4.639625301353766e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.387152777777778</v>
       </c>
       <c r="AH18" t="n">
-        <v>164851.8466649175</v>
+        <v>216199.1075707363</v>
       </c>
     </row>
     <row r="19">
@@ -8254,28 +8254,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>132.4227144187173</v>
+        <v>173.9100590364479</v>
       </c>
       <c r="AB19" t="n">
-        <v>181.1865999454564</v>
+        <v>237.9514151438758</v>
       </c>
       <c r="AC19" t="n">
-        <v>163.8944051437029</v>
+        <v>215.2416660495218</v>
       </c>
       <c r="AD19" t="n">
-        <v>132422.7144187173</v>
+        <v>173910.0590364479</v>
       </c>
       <c r="AE19" t="n">
-        <v>181186.5999454564</v>
+        <v>237951.4151438758</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.765315183267041e-06</v>
+        <v>4.674902521747124e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>8</v>
+        <v>7.326388888888889</v>
       </c>
       <c r="AH19" t="n">
-        <v>163894.4051437029</v>
+        <v>215241.6660495218</v>
       </c>
     </row>
     <row r="20">
@@ -8360,28 +8360,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>132.4000694509375</v>
+        <v>173.887414068668</v>
       </c>
       <c r="AB20" t="n">
-        <v>181.1556161015145</v>
+        <v>237.920431299934</v>
       </c>
       <c r="AC20" t="n">
-        <v>163.8663783543408</v>
+        <v>215.2136392601597</v>
       </c>
       <c r="AD20" t="n">
-        <v>132400.0694509375</v>
+        <v>173887.414068668</v>
       </c>
       <c r="AE20" t="n">
-        <v>181155.6161015145</v>
+        <v>237920.431299934</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.764754987065421e-06</v>
+        <v>4.673955482273476e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7.326388888888889</v>
       </c>
       <c r="AH20" t="n">
-        <v>163866.3783543408</v>
+        <v>215213.6392601597</v>
       </c>
     </row>
     <row r="21">
@@ -8466,28 +8466,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>132.2454402894886</v>
+        <v>173.7327849072192</v>
       </c>
       <c r="AB21" t="n">
-        <v>180.9440456610632</v>
+        <v>237.7088608594826</v>
       </c>
       <c r="AC21" t="n">
-        <v>163.6749998997851</v>
+        <v>215.0222608056039</v>
       </c>
       <c r="AD21" t="n">
-        <v>132245.4402894886</v>
+        <v>173732.7849072192</v>
       </c>
       <c r="AE21" t="n">
-        <v>180944.0456610632</v>
+        <v>237708.8608594826</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.764661621031817e-06</v>
+        <v>4.673797642361203e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>8</v>
+        <v>7.326388888888889</v>
       </c>
       <c r="AH21" t="n">
-        <v>163674.9998997851</v>
+        <v>215022.2608056039</v>
       </c>
     </row>
     <row r="22">
@@ -8572,28 +8572,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>131.9161457800638</v>
+        <v>173.4034903977943</v>
       </c>
       <c r="AB22" t="n">
-        <v>180.4934903858198</v>
+        <v>237.2583055842393</v>
       </c>
       <c r="AC22" t="n">
-        <v>163.2674449876525</v>
+        <v>214.6147058934714</v>
       </c>
       <c r="AD22" t="n">
-        <v>131916.1457800638</v>
+        <v>173403.4903977943</v>
       </c>
       <c r="AE22" t="n">
-        <v>180493.4903858198</v>
+        <v>237258.3055842393</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.765665305893054e-06</v>
+        <v>4.675494421418153e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>8</v>
+        <v>7.326388888888889</v>
       </c>
       <c r="AH22" t="n">
-        <v>163267.4449876525</v>
+        <v>214614.7058934714</v>
       </c>
     </row>
     <row r="23">
@@ -8678,28 +8678,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>131.4188079835744</v>
+        <v>172.906152601305</v>
       </c>
       <c r="AB23" t="n">
-        <v>179.8130108716684</v>
+        <v>236.5778260700878</v>
       </c>
       <c r="AC23" t="n">
-        <v>162.6519094832725</v>
+        <v>213.9991703890914</v>
       </c>
       <c r="AD23" t="n">
-        <v>131418.8079835744</v>
+        <v>172906.152601305</v>
       </c>
       <c r="AE23" t="n">
-        <v>179813.0108716684</v>
+        <v>236577.8260700878</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.768232871817149e-06</v>
+        <v>4.679835019005703e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>8</v>
+        <v>7.317708333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>162651.9094832725</v>
+        <v>213999.1703890914</v>
       </c>
     </row>
     <row r="24">
@@ -8784,28 +8784,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>130.89302433708</v>
+        <v>172.3803689548105</v>
       </c>
       <c r="AB24" t="n">
-        <v>179.0936104905977</v>
+        <v>235.8584256890172</v>
       </c>
       <c r="AC24" t="n">
-        <v>162.0011676648862</v>
+        <v>213.3484285707051</v>
       </c>
       <c r="AD24" t="n">
-        <v>130893.02433708</v>
+        <v>172380.3689548105</v>
       </c>
       <c r="AE24" t="n">
-        <v>179093.6104905977</v>
+        <v>235858.4256890172</v>
       </c>
       <c r="AF24" t="n">
-        <v>2.768396262375955e-06</v>
+        <v>4.680111238852184e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>8</v>
+        <v>7.317708333333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>162001.1676648862</v>
+        <v>213348.4285707051</v>
       </c>
     </row>
     <row r="25">
@@ -8890,28 +8890,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>130.3362928955557</v>
+        <v>171.8236375132862</v>
       </c>
       <c r="AB25" t="n">
-        <v>178.3318659710467</v>
+        <v>235.0966811694662</v>
       </c>
       <c r="AC25" t="n">
-        <v>161.3121229731658</v>
+        <v>212.6593838789847</v>
       </c>
       <c r="AD25" t="n">
-        <v>130336.2928955557</v>
+        <v>171823.6375132862</v>
       </c>
       <c r="AE25" t="n">
-        <v>178331.8659710467</v>
+        <v>235096.6811694662</v>
       </c>
       <c r="AF25" t="n">
-        <v>2.766225502094675e-06</v>
+        <v>4.6764414608918e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>8</v>
+        <v>7.326388888888889</v>
       </c>
       <c r="AH25" t="n">
-        <v>161312.1229731658</v>
+        <v>212659.3838789847</v>
       </c>
     </row>
     <row r="26">
@@ -8996,28 +8996,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>129.7889651274475</v>
+        <v>171.2763097451781</v>
       </c>
       <c r="AB26" t="n">
-        <v>177.5829879723246</v>
+        <v>234.3478031707441</v>
       </c>
       <c r="AC26" t="n">
-        <v>160.6347168395846</v>
+        <v>211.9819777454035</v>
       </c>
       <c r="AD26" t="n">
-        <v>129788.9651274475</v>
+        <v>171276.3097451781</v>
       </c>
       <c r="AE26" t="n">
-        <v>177582.9879723246</v>
+        <v>234347.8031707441</v>
       </c>
       <c r="AF26" t="n">
-        <v>2.785482246525387e-06</v>
+        <v>4.708995942798423e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>7.274305555555555</v>
       </c>
       <c r="AH26" t="n">
-        <v>160634.7168395846</v>
+        <v>211981.9777454035</v>
       </c>
     </row>
   </sheetData>
@@ -9293,28 +9293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.7585819046661</v>
+        <v>238.1313072586828</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.2171339170154</v>
+        <v>325.821760203005</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.0048320134374</v>
+        <v>294.7257887030395</v>
       </c>
       <c r="AD2" t="n">
-        <v>177758.5819046661</v>
+        <v>238131.3072586828</v>
       </c>
       <c r="AE2" t="n">
-        <v>243217.1339170155</v>
+        <v>325821.760203005</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.114771452524791e-06</v>
+        <v>3.662342184364394e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.913194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>220004.8320134374</v>
+        <v>294725.7887030395</v>
       </c>
     </row>
     <row r="3">
@@ -9399,28 +9399,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.411984284951</v>
+        <v>188.6890043143704</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.0638243732284</v>
+        <v>258.1726200741689</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.6836979769727</v>
+        <v>233.5329875619136</v>
       </c>
       <c r="AD3" t="n">
-        <v>148411.984284951</v>
+        <v>188689.0043143704</v>
       </c>
       <c r="AE3" t="n">
-        <v>203063.8243732284</v>
+        <v>258172.620074169</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.530790878605214e-06</v>
+        <v>4.38280088538875e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.28125</v>
       </c>
       <c r="AH3" t="n">
-        <v>183683.6979769727</v>
+        <v>233532.9875619136</v>
       </c>
     </row>
     <row r="4">
@@ -9505,28 +9505,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.1365486473701</v>
+        <v>173.49882002281</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.1632994292422</v>
+        <v>237.388739782832</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.7778897995629</v>
+        <v>214.732691635216</v>
       </c>
       <c r="AD4" t="n">
-        <v>133136.5486473701</v>
+        <v>173498.82002281</v>
       </c>
       <c r="AE4" t="n">
-        <v>182163.2994292421</v>
+        <v>237388.739782832</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.678977727398271e-06</v>
+        <v>4.639429537555821e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.821180555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>164777.8897995629</v>
+        <v>214732.691635216</v>
       </c>
     </row>
     <row r="5">
@@ -9611,28 +9611,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>130.3626015608597</v>
+        <v>170.7248729362997</v>
       </c>
       <c r="AB5" t="n">
-        <v>178.3678626475721</v>
+        <v>233.593303001162</v>
       </c>
       <c r="AC5" t="n">
-        <v>161.3446841774052</v>
+        <v>211.2994860130584</v>
       </c>
       <c r="AD5" t="n">
-        <v>130362.6015608597</v>
+        <v>170724.8729362997</v>
       </c>
       <c r="AE5" t="n">
-        <v>178367.8626475721</v>
+        <v>233593.303001162</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.762741810576225e-06</v>
+        <v>4.78449142355347e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.586805555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>161344.6841774052</v>
+        <v>211299.4860130584</v>
       </c>
     </row>
     <row r="6">
@@ -9717,28 +9717,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.3572592044884</v>
+        <v>169.7195305799284</v>
       </c>
       <c r="AB6" t="n">
-        <v>176.9923088830111</v>
+        <v>232.2177492366009</v>
       </c>
       <c r="AC6" t="n">
-        <v>160.1004113335316</v>
+        <v>210.0552131691848</v>
       </c>
       <c r="AD6" t="n">
-        <v>129357.2592044884</v>
+        <v>169719.5305799284</v>
       </c>
       <c r="AE6" t="n">
-        <v>176992.3088830111</v>
+        <v>232217.7492366009</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.79051024403101e-06</v>
+        <v>4.832580546902359e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.508680555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>160100.4113335316</v>
+        <v>210055.2131691848</v>
       </c>
     </row>
     <row r="7">
@@ -9823,28 +9823,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>128.0497005775647</v>
+        <v>168.2413797524125</v>
       </c>
       <c r="AB7" t="n">
-        <v>175.2032494842395</v>
+        <v>230.1952780629825</v>
       </c>
       <c r="AC7" t="n">
-        <v>158.4820972528176</v>
+        <v>208.2257638058197</v>
       </c>
       <c r="AD7" t="n">
-        <v>128049.7005775647</v>
+        <v>168241.3797524125</v>
       </c>
       <c r="AE7" t="n">
-        <v>175203.2494842395</v>
+        <v>230195.2780629825</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.828275313529518e-06</v>
+        <v>4.897981754656848e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.413194444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>158482.0972528176</v>
+        <v>208225.7638058197</v>
       </c>
     </row>
     <row r="8">
@@ -9929,28 +9929,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>127.1937426346523</v>
+        <v>167.3854218095001</v>
       </c>
       <c r="AB8" t="n">
-        <v>174.0320900645481</v>
+        <v>229.0241186432911</v>
       </c>
       <c r="AC8" t="n">
-        <v>157.4227116444086</v>
+        <v>207.1663781974107</v>
       </c>
       <c r="AD8" t="n">
-        <v>127193.7426346523</v>
+        <v>167385.4218095001</v>
       </c>
       <c r="AE8" t="n">
-        <v>174032.0900645481</v>
+        <v>229024.1186432911</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.84727858059814e-06</v>
+        <v>4.930891441679089e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.361111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>157422.7116444086</v>
+        <v>207166.3781974107</v>
       </c>
     </row>
     <row r="9">
@@ -10035,28 +10035,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>126.5087939074202</v>
+        <v>166.700473082268</v>
       </c>
       <c r="AB9" t="n">
-        <v>173.0949129981444</v>
+        <v>228.0869415768874</v>
       </c>
       <c r="AC9" t="n">
-        <v>156.5749774418859</v>
+        <v>206.318643994888</v>
       </c>
       <c r="AD9" t="n">
-        <v>126508.7939074202</v>
+        <v>166700.473082268</v>
       </c>
       <c r="AE9" t="n">
-        <v>173094.9129981444</v>
+        <v>228086.9415768874</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.863022075043809e-06</v>
+        <v>4.958155883786458e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.317708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>156574.9774418859</v>
+        <v>206318.643994888</v>
       </c>
     </row>
     <row r="10">
@@ -10141,28 +10141,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>125.9424170311346</v>
+        <v>166.1340962059824</v>
       </c>
       <c r="AB10" t="n">
-        <v>172.3199711692266</v>
+        <v>227.3119997479696</v>
       </c>
       <c r="AC10" t="n">
-        <v>155.873994973482</v>
+        <v>205.6176615264841</v>
       </c>
       <c r="AD10" t="n">
-        <v>125942.4170311346</v>
+        <v>166134.0962059824</v>
       </c>
       <c r="AE10" t="n">
-        <v>172319.9711692266</v>
+        <v>227311.9997479696</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.877920443253898e-06</v>
+        <v>4.983956743878862e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.282986111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>155873.994973482</v>
+        <v>205617.6615264841</v>
       </c>
     </row>
     <row r="11">
@@ -10247,28 +10247,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>125.0619254085942</v>
+        <v>155.3337184487253</v>
       </c>
       <c r="AB11" t="n">
-        <v>171.1152436867185</v>
+        <v>212.5344464214593</v>
       </c>
       <c r="AC11" t="n">
-        <v>154.7842449910586</v>
+        <v>192.250457149025</v>
       </c>
       <c r="AD11" t="n">
-        <v>125061.9254085943</v>
+        <v>155333.7184487253</v>
       </c>
       <c r="AE11" t="n">
-        <v>171115.2436867185</v>
+        <v>212534.4464214593</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.898831280968545e-06</v>
+        <v>5.020169944592026e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.230902777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>154784.2449910586</v>
+        <v>192250.457149025</v>
       </c>
     </row>
     <row r="12">
@@ -10353,28 +10353,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>124.7365932072131</v>
+        <v>155.0083862473441</v>
       </c>
       <c r="AB12" t="n">
-        <v>170.6701098161453</v>
+        <v>212.0893125508861</v>
       </c>
       <c r="AC12" t="n">
-        <v>154.3815940723434</v>
+        <v>191.8478062303098</v>
       </c>
       <c r="AD12" t="n">
-        <v>124736.5932072131</v>
+        <v>155008.3862473441</v>
       </c>
       <c r="AE12" t="n">
-        <v>170670.1098161453</v>
+        <v>212089.3125508861</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.899700553667999e-06</v>
+        <v>5.021675343235992e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.230902777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>154381.5940723434</v>
+        <v>191847.8062303098</v>
       </c>
     </row>
     <row r="13">
@@ -10459,28 +10459,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>124.0650150810629</v>
+        <v>154.3368081211939</v>
       </c>
       <c r="AB13" t="n">
-        <v>169.7512269960112</v>
+        <v>211.1704297307519</v>
       </c>
       <c r="AC13" t="n">
-        <v>153.5504081389024</v>
+        <v>191.0166202968688</v>
       </c>
       <c r="AD13" t="n">
-        <v>124065.0150810629</v>
+        <v>154336.8081211939</v>
       </c>
       <c r="AE13" t="n">
-        <v>169751.2269960112</v>
+        <v>211170.4297307519</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.914574775414214e-06</v>
+        <v>5.047434386699395e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH13" t="n">
-        <v>153550.4081389024</v>
+        <v>191016.6202968688</v>
       </c>
     </row>
     <row r="14">
@@ -10565,28 +10565,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>123.8319769610903</v>
+        <v>154.1037700012214</v>
       </c>
       <c r="AB14" t="n">
-        <v>169.4323739593486</v>
+        <v>210.8515766940894</v>
       </c>
       <c r="AC14" t="n">
-        <v>153.2619859885458</v>
+        <v>190.7281981465122</v>
       </c>
       <c r="AD14" t="n">
-        <v>123831.9769610903</v>
+        <v>154103.7700012214</v>
       </c>
       <c r="AE14" t="n">
-        <v>169432.3739593486</v>
+        <v>210851.5766940894</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.915757952144027e-06</v>
+        <v>5.049483401520349e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH14" t="n">
-        <v>153261.9859885458</v>
+        <v>190728.1981465122</v>
       </c>
     </row>
     <row r="15">
@@ -10671,28 +10671,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>123.1311099809154</v>
+        <v>153.4029030210465</v>
       </c>
       <c r="AB15" t="n">
-        <v>168.4734168370049</v>
+        <v>209.8926195717456</v>
       </c>
       <c r="AC15" t="n">
-        <v>152.3945503880534</v>
+        <v>189.8607625460199</v>
       </c>
       <c r="AD15" t="n">
-        <v>123131.1099809154</v>
+        <v>153402.9030210465</v>
       </c>
       <c r="AE15" t="n">
-        <v>168473.4168370049</v>
+        <v>209892.6195717456</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.918679674272748e-06</v>
+        <v>5.054543213629232e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.178819444444445</v>
       </c>
       <c r="AH15" t="n">
-        <v>152394.5503880534</v>
+        <v>189860.7625460199</v>
       </c>
     </row>
     <row r="16">
@@ -10777,28 +10777,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>122.343253269693</v>
+        <v>152.615046309824</v>
       </c>
       <c r="AB16" t="n">
-        <v>167.3954365269259</v>
+        <v>208.8146392616667</v>
       </c>
       <c r="AC16" t="n">
-        <v>151.4194510058132</v>
+        <v>188.8856631637796</v>
       </c>
       <c r="AD16" t="n">
-        <v>122343.253269693</v>
+        <v>152615.046309824</v>
       </c>
       <c r="AE16" t="n">
-        <v>167395.4365269259</v>
+        <v>208814.6392616667</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.935944395942461e-06</v>
+        <v>5.08444210336354e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>151419.4510058132</v>
+        <v>188885.6631637796</v>
       </c>
     </row>
     <row r="17">
@@ -10883,28 +10883,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>122.2039689992909</v>
+        <v>152.475762039422</v>
       </c>
       <c r="AB17" t="n">
-        <v>167.2048616433735</v>
+        <v>208.6240643781143</v>
       </c>
       <c r="AC17" t="n">
-        <v>151.2470643216735</v>
+        <v>188.7132764796399</v>
       </c>
       <c r="AD17" t="n">
-        <v>122203.9689992909</v>
+        <v>152475.762039422</v>
       </c>
       <c r="AE17" t="n">
-        <v>167204.8616433735</v>
+        <v>208624.0643781143</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.937320744383264e-06</v>
+        <v>5.086825651216486e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>151247.0643216735</v>
+        <v>188713.2764796399</v>
       </c>
     </row>
     <row r="18">
@@ -10989,28 +10989,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>121.9231587224755</v>
+        <v>152.1949517626065</v>
       </c>
       <c r="AB18" t="n">
-        <v>166.8206446341597</v>
+        <v>208.2398473689005</v>
       </c>
       <c r="AC18" t="n">
-        <v>150.899516444567</v>
+        <v>188.3657286025334</v>
       </c>
       <c r="AD18" t="n">
-        <v>121923.1587224755</v>
+        <v>152194.9517626065</v>
       </c>
       <c r="AE18" t="n">
-        <v>166820.6446341597</v>
+        <v>208239.8473689005</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.936234153508946e-06</v>
+        <v>5.084943902911529e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>150899.516444567</v>
+        <v>188365.7286025334</v>
       </c>
     </row>
     <row r="19">
@@ -11095,28 +11095,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>121.9097329482624</v>
+        <v>152.1815259883934</v>
       </c>
       <c r="AB19" t="n">
-        <v>166.802274897578</v>
+        <v>208.2214776323188</v>
       </c>
       <c r="AC19" t="n">
-        <v>150.8828998898625</v>
+        <v>188.3491120478289</v>
       </c>
       <c r="AD19" t="n">
-        <v>121909.7329482624</v>
+        <v>152181.5259883934</v>
       </c>
       <c r="AE19" t="n">
-        <v>166802.274897578</v>
+        <v>208221.4776323188</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.936234153508946e-06</v>
+        <v>5.084943902911529e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>150882.8998898625</v>
+        <v>188349.1120478289</v>
       </c>
     </row>
   </sheetData>
@@ -11392,28 +11392,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.4560589646832</v>
+        <v>146.9175214155441</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.130852852819</v>
+        <v>201.0190343442584</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.7071363700714</v>
+        <v>181.8340598384861</v>
       </c>
       <c r="AD2" t="n">
-        <v>110456.0589646832</v>
+        <v>146917.5214155441</v>
       </c>
       <c r="AE2" t="n">
-        <v>151130.852852819</v>
+        <v>201019.0343442584</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.987678352548572e-06</v>
+        <v>5.653330360688675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.829861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>136707.1363700714</v>
+        <v>181834.0598384861</v>
       </c>
     </row>
     <row r="3">
@@ -11498,28 +11498,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.6192626700354</v>
+        <v>131.9654490167322</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.1446906612069</v>
+        <v>180.5609492493349</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.4831622893752</v>
+        <v>163.3284656719128</v>
       </c>
       <c r="AD3" t="n">
-        <v>104619.2626700354</v>
+        <v>131965.4490167322</v>
       </c>
       <c r="AE3" t="n">
-        <v>143144.6906612069</v>
+        <v>180560.9492493349</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.265497277499001e-06</v>
+        <v>6.179023550471432e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.161458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>129483.1622893752</v>
+        <v>163328.4656719128</v>
       </c>
     </row>
     <row r="4">
@@ -11604,28 +11604,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.38142739596091</v>
+        <v>129.7575489922503</v>
       </c>
       <c r="AB4" t="n">
-        <v>127.7685886609239</v>
+        <v>177.5400030301656</v>
       </c>
       <c r="AC4" t="n">
-        <v>115.5745338834995</v>
+        <v>160.5958343199755</v>
       </c>
       <c r="AD4" t="n">
-        <v>93381.42739596091</v>
+        <v>129757.5489922503</v>
       </c>
       <c r="AE4" t="n">
-        <v>127768.5886609239</v>
+        <v>177540.0030301657</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.351690929028089e-06</v>
+        <v>6.342120487152165e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.979166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>115574.5338834995</v>
+        <v>160595.8343199755</v>
       </c>
     </row>
     <row r="5">
@@ -11710,28 +11710,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>91.91637518800199</v>
+        <v>128.2924967842914</v>
       </c>
       <c r="AB5" t="n">
-        <v>125.7640395964537</v>
+        <v>175.5354539656955</v>
       </c>
       <c r="AC5" t="n">
-        <v>113.7612961683395</v>
+        <v>158.7825966048154</v>
       </c>
       <c r="AD5" t="n">
-        <v>91916.375188002</v>
+        <v>128292.4967842914</v>
       </c>
       <c r="AE5" t="n">
-        <v>125764.0395964537</v>
+        <v>175535.4539656955</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.400809724507153e-06</v>
+        <v>6.435063818058378e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH5" t="n">
-        <v>113761.2961683395</v>
+        <v>158782.5966048155</v>
       </c>
     </row>
     <row r="6">
@@ -11816,28 +11816,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>90.84178291412807</v>
+        <v>127.2179045104174</v>
       </c>
       <c r="AB6" t="n">
-        <v>124.2937350396749</v>
+        <v>174.0651494089167</v>
       </c>
       <c r="AC6" t="n">
-        <v>112.4313154148737</v>
+        <v>157.4526158513497</v>
       </c>
       <c r="AD6" t="n">
-        <v>90841.78291412808</v>
+        <v>127217.9045104174</v>
       </c>
       <c r="AE6" t="n">
-        <v>124293.7350396749</v>
+        <v>174065.1494089167</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.43537879450147e-06</v>
+        <v>6.500475937396103e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.805555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>112431.3154148737</v>
+        <v>157452.6158513497</v>
       </c>
     </row>
     <row r="7">
@@ -11922,28 +11922,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>90.987007800405</v>
+        <v>127.3631293966944</v>
       </c>
       <c r="AB7" t="n">
-        <v>124.4924381359487</v>
+        <v>174.2638525051904</v>
       </c>
       <c r="AC7" t="n">
-        <v>112.6110545665208</v>
+        <v>157.6323550029967</v>
       </c>
       <c r="AD7" t="n">
-        <v>90987.007800405</v>
+        <v>127363.1293966944</v>
       </c>
       <c r="AE7" t="n">
-        <v>124492.4381359487</v>
+        <v>174263.8525051904</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.432603569084935e-06</v>
+        <v>6.495224613708039e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.814236111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>112611.0545665208</v>
+        <v>157632.3550029967</v>
       </c>
     </row>
   </sheetData>
@@ -12219,28 +12219,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.7537503781528</v>
+        <v>172.6550221480215</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.3760261832029</v>
+        <v>236.2342183048119</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.7794370177078</v>
+        <v>213.6883560666767</v>
       </c>
       <c r="AD2" t="n">
-        <v>134753.7503781528</v>
+        <v>172655.0221480215</v>
       </c>
       <c r="AE2" t="n">
-        <v>184376.0261832029</v>
+        <v>236234.2183048119</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.652108910130643e-06</v>
+        <v>4.831566463088742e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>166779.4370177078</v>
+        <v>213688.3560666767</v>
       </c>
     </row>
     <row r="3">
@@ -12325,28 +12325,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.3915270013992</v>
+        <v>154.3780501172885</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.2520220750188</v>
+        <v>211.226858849277</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.0532325998395</v>
+        <v>191.0676638995207</v>
       </c>
       <c r="AD3" t="n">
-        <v>116391.5270013992</v>
+        <v>154378.0501172885</v>
       </c>
       <c r="AE3" t="n">
-        <v>159252.0220750188</v>
+        <v>211226.858849277</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.975448180302175e-06</v>
+        <v>5.420620392206386e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.517361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>144053.2325998395</v>
+        <v>191067.6638995207</v>
       </c>
     </row>
     <row r="4">
@@ -12431,28 +12431,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.6530970081475</v>
+        <v>142.1430788536155</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.5051813472488</v>
+        <v>194.4864313974908</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.6639850924027</v>
+        <v>175.9249193483901</v>
       </c>
       <c r="AD4" t="n">
-        <v>113653.0970081475</v>
+        <v>142143.0788536155</v>
       </c>
       <c r="AE4" t="n">
-        <v>155505.1813472488</v>
+        <v>194486.4313974908</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.083296674115767e-06</v>
+        <v>5.617096925961824e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.256944444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>140663.9850924027</v>
+        <v>175924.9193483902</v>
       </c>
     </row>
     <row r="5">
@@ -12537,28 +12537,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>111.8852077929078</v>
+        <v>140.3751896383758</v>
       </c>
       <c r="AB5" t="n">
-        <v>153.0862773291914</v>
+        <v>192.0675273794335</v>
       </c>
       <c r="AC5" t="n">
-        <v>138.4759378788749</v>
+        <v>173.7368721348623</v>
       </c>
       <c r="AD5" t="n">
-        <v>111885.2077929078</v>
+        <v>140375.1896383759</v>
       </c>
       <c r="AE5" t="n">
-        <v>153086.2773291914</v>
+        <v>192067.5273794335</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.147840801388528e-06</v>
+        <v>5.73468230849615e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.109374999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>138475.9378788749</v>
+        <v>173736.8721348623</v>
       </c>
     </row>
     <row r="6">
@@ -12643,28 +12643,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>110.8014592500182</v>
+        <v>139.2914410954862</v>
       </c>
       <c r="AB6" t="n">
-        <v>151.6034447611992</v>
+        <v>190.5846948114413</v>
       </c>
       <c r="AC6" t="n">
-        <v>137.1346247700029</v>
+        <v>172.3955590259903</v>
       </c>
       <c r="AD6" t="n">
-        <v>110801.4592500182</v>
+        <v>139291.4410954863</v>
       </c>
       <c r="AE6" t="n">
-        <v>151603.4447611992</v>
+        <v>190584.6948114413</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.179210690721975e-06</v>
+        <v>5.791831434112873e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.039930555555554</v>
       </c>
       <c r="AH6" t="n">
-        <v>137134.6247700028</v>
+        <v>172395.5590259903</v>
       </c>
     </row>
     <row r="7">
@@ -12749,28 +12749,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>100.0710509004606</v>
+        <v>137.9722331617783</v>
       </c>
       <c r="AB7" t="n">
-        <v>136.9216266651358</v>
+        <v>188.7796963171965</v>
       </c>
       <c r="AC7" t="n">
-        <v>123.8540187869619</v>
+        <v>170.7628270547043</v>
       </c>
       <c r="AD7" t="n">
-        <v>100071.0509004606</v>
+        <v>137972.2331617783</v>
       </c>
       <c r="AE7" t="n">
-        <v>136921.6266651358</v>
+        <v>188779.6963171964</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.212668469156497e-06</v>
+        <v>5.852784240234899e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.961805555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>123854.0187869619</v>
+        <v>170762.8270547043</v>
       </c>
     </row>
     <row r="8">
@@ -12855,28 +12855,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>99.06025358234174</v>
+        <v>136.9614358436594</v>
       </c>
       <c r="AB8" t="n">
-        <v>135.5386091812559</v>
+        <v>187.3966788333165</v>
       </c>
       <c r="AC8" t="n">
-        <v>122.6029945506658</v>
+        <v>169.5118028184082</v>
       </c>
       <c r="AD8" t="n">
-        <v>99060.25358234174</v>
+        <v>136961.4358436594</v>
       </c>
       <c r="AE8" t="n">
-        <v>135538.6091812559</v>
+        <v>187396.6788333165</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.231485247474834e-06</v>
+        <v>5.887064323801216e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>122602.9945506658</v>
+        <v>169511.8028184082</v>
       </c>
     </row>
     <row r="9">
@@ -12961,28 +12961,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>98.67892844856804</v>
+        <v>136.5801107098858</v>
       </c>
       <c r="AB9" t="n">
-        <v>135.0168633103494</v>
+        <v>186.87493296241</v>
       </c>
       <c r="AC9" t="n">
-        <v>122.1310433734035</v>
+        <v>169.0398516411459</v>
       </c>
       <c r="AD9" t="n">
-        <v>98678.92844856804</v>
+        <v>136580.1107098857</v>
       </c>
       <c r="AE9" t="n">
-        <v>135016.8633103494</v>
+        <v>186874.93296241</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.229552016825689e-06</v>
+        <v>5.883542397407415e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>122131.0433734035</v>
+        <v>169039.8516411459</v>
       </c>
     </row>
     <row r="10">
@@ -13067,28 +13067,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>98.30784286128902</v>
+        <v>136.2090251226067</v>
       </c>
       <c r="AB10" t="n">
-        <v>134.5091276386938</v>
+        <v>186.3671972907544</v>
       </c>
       <c r="AC10" t="n">
-        <v>121.6717652816391</v>
+        <v>168.5805735493815</v>
       </c>
       <c r="AD10" t="n">
-        <v>98307.84286128901</v>
+        <v>136209.0251226067</v>
       </c>
       <c r="AE10" t="n">
-        <v>134509.1276386938</v>
+        <v>186367.1972907544</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.241641152485005e-06</v>
+        <v>5.905566177123311e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.901041666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>121671.7652816391</v>
+        <v>168580.5735493815</v>
       </c>
     </row>
   </sheetData>
@@ -13364,28 +13364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.72639438553003</v>
+        <v>134.7664020532066</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.4500524162358</v>
+        <v>184.3933367631641</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.4274509225181</v>
+        <v>166.7950955002131</v>
       </c>
       <c r="AD2" t="n">
-        <v>99726.39438553003</v>
+        <v>134766.4020532066</v>
       </c>
       <c r="AE2" t="n">
-        <v>136450.0524162358</v>
+        <v>184393.3367631641</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.279643461337834e-06</v>
+        <v>6.427044481565123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.404513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>123427.4509225182</v>
+        <v>166795.0955002131</v>
       </c>
     </row>
     <row r="3">
@@ -13470,28 +13470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.64345614448405</v>
+        <v>121.7687151581812</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.5493991363457</v>
+        <v>166.6093281359232</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.2352108679304</v>
+        <v>150.7083676963376</v>
       </c>
       <c r="AD3" t="n">
-        <v>86643.45614448405</v>
+        <v>121768.7151581812</v>
       </c>
       <c r="AE3" t="n">
-        <v>118549.3991363457</v>
+        <v>166609.3281359232</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.514061615721635e-06</v>
+        <v>6.8864285345184e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.909722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>107235.2108679304</v>
+        <v>150708.3676963376</v>
       </c>
     </row>
     <row r="4">
@@ -13576,28 +13576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.75225835114507</v>
+        <v>119.8775173648423</v>
       </c>
       <c r="AB4" t="n">
-        <v>115.9617788817424</v>
+        <v>164.02170788132</v>
       </c>
       <c r="AC4" t="n">
-        <v>104.8945494586778</v>
+        <v>148.367706287085</v>
       </c>
       <c r="AD4" t="n">
-        <v>84752.25835114508</v>
+        <v>119877.5173648423</v>
       </c>
       <c r="AE4" t="n">
-        <v>115961.7788817424</v>
+        <v>164021.70788132</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.588273976402766e-06</v>
+        <v>7.031860850196099e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>104894.5494586778</v>
+        <v>148367.706287085</v>
       </c>
     </row>
     <row r="5">
@@ -13682,28 +13682,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>85.00493145556663</v>
+        <v>120.1301904692638</v>
       </c>
       <c r="AB5" t="n">
-        <v>116.3074973703625</v>
+        <v>164.36742636994</v>
       </c>
       <c r="AC5" t="n">
-        <v>105.207273059963</v>
+        <v>148.6804298883702</v>
       </c>
       <c r="AD5" t="n">
-        <v>85004.93145556664</v>
+        <v>120130.1904692638</v>
       </c>
       <c r="AE5" t="n">
-        <v>116307.4973703625</v>
+        <v>164367.42636994</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.582789201631461e-06</v>
+        <v>7.021112458841336e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.779513888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>105207.273059963</v>
+        <v>148680.4298883702</v>
       </c>
     </row>
   </sheetData>
@@ -13979,28 +13979,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.9312023108723</v>
+        <v>244.7244834149314</v>
       </c>
       <c r="AB2" t="n">
-        <v>265.3452266424327</v>
+        <v>334.8428346903833</v>
       </c>
       <c r="AC2" t="n">
-        <v>240.0210506261211</v>
+        <v>302.8859045025028</v>
       </c>
       <c r="AD2" t="n">
-        <v>193931.2023108723</v>
+        <v>244724.4834149314</v>
       </c>
       <c r="AE2" t="n">
-        <v>265345.2266424327</v>
+        <v>334842.8346903832</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.040712699523934e-06</v>
+        <v>3.511007849007566e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.18229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>240021.0506261211</v>
+        <v>302885.9045025028</v>
       </c>
     </row>
     <row r="3">
@@ -14085,28 +14085,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.2133767016382</v>
+        <v>192.8309513156814</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.2650571833345</v>
+        <v>263.8398146911651</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.3885324276601</v>
+        <v>238.6593130786231</v>
       </c>
       <c r="AD3" t="n">
-        <v>152213.3767016382</v>
+        <v>192830.9513156814</v>
       </c>
       <c r="AE3" t="n">
-        <v>208265.0571833345</v>
+        <v>263839.8146911652</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.466682760080049e-06</v>
+        <v>4.243881333062253e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.420138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>188388.5324276601</v>
+        <v>238659.3130786231</v>
       </c>
     </row>
     <row r="4">
@@ -14191,28 +14191,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>136.4565762373129</v>
+        <v>187.1644269782494</v>
       </c>
       <c r="AB4" t="n">
-        <v>186.7059076470796</v>
+        <v>256.0866261032841</v>
       </c>
       <c r="AC4" t="n">
-        <v>168.886957864682</v>
+        <v>231.6460779278984</v>
       </c>
       <c r="AD4" t="n">
-        <v>136456.5762373129</v>
+        <v>187164.4269782494</v>
       </c>
       <c r="AE4" t="n">
-        <v>186705.9076470796</v>
+        <v>256086.6261032841</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.616529651782898e-06</v>
+        <v>4.50169009420772e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.942708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>168886.957864682</v>
+        <v>231646.0779278984</v>
       </c>
     </row>
     <row r="5">
@@ -14297,28 +14297,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>133.7733112776488</v>
+        <v>174.4761372377126</v>
       </c>
       <c r="AB5" t="n">
-        <v>183.0345461519737</v>
+        <v>238.7259483124536</v>
       </c>
       <c r="AC5" t="n">
-        <v>165.5659859578797</v>
+        <v>215.9422788595549</v>
       </c>
       <c r="AD5" t="n">
-        <v>133773.3112776488</v>
+        <v>174476.1372377126</v>
       </c>
       <c r="AE5" t="n">
-        <v>183034.5461519737</v>
+        <v>238725.9483124536</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.695186108670036e-06</v>
+        <v>4.637017050114003e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.708333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>165565.9859578797</v>
+        <v>215942.2788595549</v>
       </c>
     </row>
     <row r="6">
@@ -14403,28 +14403,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>131.9904603214202</v>
+        <v>172.693286281484</v>
       </c>
       <c r="AB6" t="n">
-        <v>180.5951708198299</v>
+        <v>236.2865729803097</v>
       </c>
       <c r="AC6" t="n">
-        <v>163.3594211837501</v>
+        <v>213.7357140854253</v>
       </c>
       <c r="AD6" t="n">
-        <v>131990.4603214203</v>
+        <v>172693.286281484</v>
       </c>
       <c r="AE6" t="n">
-        <v>180595.1708198299</v>
+        <v>236286.5729803097</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.746060348810607e-06</v>
+        <v>4.724545224210979e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.560763888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>163359.4211837501</v>
+        <v>213735.7140854253</v>
       </c>
     </row>
     <row r="7">
@@ -14509,28 +14509,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>130.6494036971905</v>
+        <v>171.1816374566621</v>
       </c>
       <c r="AB7" t="n">
-        <v>178.760277983317</v>
+        <v>234.21826836895</v>
       </c>
       <c r="AC7" t="n">
-        <v>161.6996479442652</v>
+        <v>211.8648055632893</v>
       </c>
       <c r="AD7" t="n">
-        <v>130649.4036971905</v>
+        <v>171181.6374566621</v>
       </c>
       <c r="AE7" t="n">
-        <v>178760.277983317</v>
+        <v>234218.26836895</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.783773332094492e-06</v>
+        <v>4.789429703221719e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.465277777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>161699.6479442652</v>
+        <v>211864.8055632893</v>
       </c>
     </row>
     <row r="8">
@@ -14615,28 +14615,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>129.9874756670626</v>
+        <v>170.5197094265341</v>
       </c>
       <c r="AB8" t="n">
-        <v>177.8545988502927</v>
+        <v>233.3125892359257</v>
       </c>
       <c r="AC8" t="n">
-        <v>160.8804055565677</v>
+        <v>211.0455631755919</v>
       </c>
       <c r="AD8" t="n">
-        <v>129987.4756670626</v>
+        <v>170519.7094265342</v>
       </c>
       <c r="AE8" t="n">
-        <v>177854.5988502927</v>
+        <v>233312.5892359257</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.798585728447744e-06</v>
+        <v>4.814914152782409e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.421875</v>
       </c>
       <c r="AH8" t="n">
-        <v>160880.4055565677</v>
+        <v>211045.5631755919</v>
       </c>
     </row>
     <row r="9">
@@ -14721,28 +14721,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>129.1931145718291</v>
+        <v>169.7253483313007</v>
       </c>
       <c r="AB9" t="n">
-        <v>176.7677189550566</v>
+        <v>232.2257093406895</v>
       </c>
       <c r="AC9" t="n">
-        <v>159.8972559530871</v>
+        <v>210.0624135721112</v>
       </c>
       <c r="AD9" t="n">
-        <v>129193.1145718291</v>
+        <v>169725.3483313007</v>
       </c>
       <c r="AE9" t="n">
-        <v>176767.7189550565</v>
+        <v>232225.7093406895</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.81808831815356e-06</v>
+        <v>4.84846799186474e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.369791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>159897.2559530871</v>
+        <v>210062.4135721112</v>
       </c>
     </row>
     <row r="10">
@@ -14827,28 +14827,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>128.5641952601072</v>
+        <v>169.0964290195788</v>
       </c>
       <c r="AB10" t="n">
-        <v>175.9072038067973</v>
+        <v>231.3651941924303</v>
       </c>
       <c r="AC10" t="n">
-        <v>159.1188671628368</v>
+        <v>209.284024781861</v>
       </c>
       <c r="AD10" t="n">
-        <v>128564.1952601072</v>
+        <v>169096.4290195788</v>
       </c>
       <c r="AE10" t="n">
-        <v>175907.2038067973</v>
+        <v>231365.1941924303</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.834503994887536e-06</v>
+        <v>4.876710855190481e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.326388888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>159118.8671628368</v>
+        <v>209284.024781861</v>
       </c>
     </row>
     <row r="11">
@@ -14933,28 +14933,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>127.6430404360619</v>
+        <v>168.1752741955335</v>
       </c>
       <c r="AB11" t="n">
-        <v>174.6468391380565</v>
+        <v>230.1048295236895</v>
       </c>
       <c r="AC11" t="n">
-        <v>157.9787899291473</v>
+        <v>208.1439475481714</v>
       </c>
       <c r="AD11" t="n">
-        <v>127643.0404360619</v>
+        <v>168175.2741955335</v>
       </c>
       <c r="AE11" t="n">
-        <v>174646.8391380565</v>
+        <v>230104.8295236895</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.851876853938361e-06</v>
+        <v>4.906600532704313e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.282986111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>157978.7899291473</v>
+        <v>208143.9475481714</v>
       </c>
     </row>
     <row r="12">
@@ -15039,28 +15039,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>127.4973081912897</v>
+        <v>168.0295419507613</v>
       </c>
       <c r="AB12" t="n">
-        <v>174.4474418515063</v>
+        <v>229.9054322371393</v>
       </c>
       <c r="AC12" t="n">
-        <v>157.7984228397695</v>
+        <v>207.9635804587937</v>
       </c>
       <c r="AD12" t="n">
-        <v>127497.3081912897</v>
+        <v>168029.5419507613</v>
       </c>
       <c r="AE12" t="n">
-        <v>174447.4418515063</v>
+        <v>229905.4322371393</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.854317668846328e-06</v>
+        <v>4.910799908883942e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.274305555555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>157798.4228397695</v>
+        <v>207963.5804587937</v>
       </c>
     </row>
     <row r="13">
@@ -15145,28 +15145,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>127.0507026502922</v>
+        <v>167.5829364097638</v>
       </c>
       <c r="AB13" t="n">
-        <v>173.8363764474679</v>
+        <v>229.294366833101</v>
       </c>
       <c r="AC13" t="n">
-        <v>157.2456766602567</v>
+        <v>207.4108342792809</v>
       </c>
       <c r="AD13" t="n">
-        <v>127050.7026502922</v>
+        <v>167582.9364097638</v>
       </c>
       <c r="AE13" t="n">
-        <v>173836.3764474679</v>
+        <v>229294.3668331009</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.851493981011621e-06</v>
+        <v>4.905941807029077e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.282986111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>157245.6766602567</v>
+        <v>207410.8342792809</v>
       </c>
     </row>
     <row r="14">
@@ -15251,28 +15251,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>126.4608186665818</v>
+        <v>156.9880276451807</v>
       </c>
       <c r="AB14" t="n">
-        <v>173.0292711571111</v>
+        <v>214.7979452470194</v>
       </c>
       <c r="AC14" t="n">
-        <v>156.5156003660319</v>
+        <v>194.2979308235149</v>
       </c>
       <c r="AD14" t="n">
-        <v>126460.8186665818</v>
+        <v>156988.0276451807</v>
       </c>
       <c r="AE14" t="n">
-        <v>173029.2711571111</v>
+        <v>214797.9452470194</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.871259795854571e-06</v>
+        <v>4.939948520013131e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.230902777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>156515.6003660319</v>
+        <v>194297.9308235149</v>
       </c>
     </row>
     <row r="15">
@@ -15357,28 +15357,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>126.1515394635498</v>
+        <v>156.6787484421487</v>
       </c>
       <c r="AB15" t="n">
-        <v>172.6061017070875</v>
+        <v>214.3747757969957</v>
       </c>
       <c r="AC15" t="n">
-        <v>156.1328176143963</v>
+        <v>193.9151480718793</v>
       </c>
       <c r="AD15" t="n">
-        <v>126151.5394635498</v>
+        <v>156678.7484421487</v>
       </c>
       <c r="AE15" t="n">
-        <v>172606.1017070875</v>
+        <v>214374.7757969957</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.871929823476366e-06</v>
+        <v>4.941101289944794e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.230902777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>156132.8176143963</v>
+        <v>193915.1480718793</v>
       </c>
     </row>
     <row r="16">
@@ -15463,28 +15463,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>125.6253194194873</v>
+        <v>156.1525283980862</v>
       </c>
       <c r="AB16" t="n">
-        <v>171.8861042276116</v>
+        <v>213.6547783175199</v>
       </c>
       <c r="AC16" t="n">
-        <v>155.4815356838386</v>
+        <v>193.2638661413216</v>
       </c>
       <c r="AD16" t="n">
-        <v>125625.3194194873</v>
+        <v>156152.5283980862</v>
       </c>
       <c r="AE16" t="n">
-        <v>171886.1042276116</v>
+        <v>213654.7783175199</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.870398331769406e-06</v>
+        <v>4.938466387243851e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.239583333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>155481.5356838386</v>
+        <v>193263.8661413216</v>
       </c>
     </row>
     <row r="17">
@@ -15569,28 +15569,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>124.9090472203904</v>
+        <v>155.4362561989893</v>
       </c>
       <c r="AB17" t="n">
-        <v>170.9060690051085</v>
+        <v>212.6747430950168</v>
       </c>
       <c r="AC17" t="n">
-        <v>154.5950336474828</v>
+        <v>192.3773641049658</v>
       </c>
       <c r="AD17" t="n">
-        <v>124909.0472203904</v>
+        <v>155436.2561989893</v>
       </c>
       <c r="AE17" t="n">
-        <v>170906.0690051085</v>
+        <v>212674.7430950168</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.890714526444545e-06</v>
+        <v>4.973420018386058e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH17" t="n">
-        <v>154595.0336474828</v>
+        <v>192377.3641049658</v>
       </c>
     </row>
     <row r="18">
@@ -15675,28 +15675,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>124.7532227779257</v>
+        <v>155.2804317565246</v>
       </c>
       <c r="AB18" t="n">
-        <v>170.6928631284392</v>
+        <v>212.4615372183475</v>
       </c>
       <c r="AC18" t="n">
-        <v>154.4021758404464</v>
+        <v>192.1845062979294</v>
       </c>
       <c r="AD18" t="n">
-        <v>124753.2227779257</v>
+        <v>155280.4317565246</v>
       </c>
       <c r="AE18" t="n">
-        <v>170692.8631284392</v>
+        <v>212461.5372183475</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.891217047160891e-06</v>
+        <v>4.974284595834805e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH18" t="n">
-        <v>154402.1758404464</v>
+        <v>192184.5062979294</v>
       </c>
     </row>
     <row r="19">
@@ -15781,28 +15781,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>124.4023486063091</v>
+        <v>154.929557584908</v>
       </c>
       <c r="AB19" t="n">
-        <v>170.2127816073576</v>
+        <v>211.9814556972659</v>
       </c>
       <c r="AC19" t="n">
-        <v>153.9679126259381</v>
+        <v>191.750243083421</v>
       </c>
       <c r="AD19" t="n">
-        <v>124402.3486063091</v>
+        <v>154929.557584908</v>
       </c>
       <c r="AE19" t="n">
-        <v>170212.7816073576</v>
+        <v>211981.4556972659</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.891504201855945e-06</v>
+        <v>4.974778640091232e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH19" t="n">
-        <v>153967.912625938</v>
+        <v>191750.243083421</v>
       </c>
     </row>
     <row r="20">
@@ -15887,28 +15887,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>123.7694136774522</v>
+        <v>154.2966226560511</v>
       </c>
       <c r="AB20" t="n">
-        <v>169.3467721145777</v>
+        <v>211.115446204486</v>
       </c>
       <c r="AC20" t="n">
-        <v>153.1845538636968</v>
+        <v>190.9668843211798</v>
       </c>
       <c r="AD20" t="n">
-        <v>123769.4136774522</v>
+        <v>154296.6226560511</v>
       </c>
       <c r="AE20" t="n">
-        <v>169346.7721145777</v>
+        <v>211115.446204486</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.895667944934242e-06</v>
+        <v>4.981942281809423e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7.170138888888889</v>
       </c>
       <c r="AH20" t="n">
-        <v>153184.5538636968</v>
+        <v>190966.8843211798</v>
       </c>
     </row>
     <row r="21">
@@ -15993,28 +15993,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>123.8556896519731</v>
+        <v>154.382898630572</v>
       </c>
       <c r="AB21" t="n">
-        <v>169.4648187091445</v>
+        <v>211.2334927990528</v>
       </c>
       <c r="AC21" t="n">
-        <v>153.2913342569577</v>
+        <v>191.0736647144407</v>
       </c>
       <c r="AD21" t="n">
-        <v>123855.6896519731</v>
+        <v>154382.898630572</v>
       </c>
       <c r="AE21" t="n">
-        <v>169464.8187091445</v>
+        <v>211233.4927990528</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.893346777815882e-06</v>
+        <v>4.977948757403305e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>8</v>
+        <v>7.178819444444445</v>
       </c>
       <c r="AH21" t="n">
-        <v>153291.3342569577</v>
+        <v>191073.6647144407</v>
       </c>
     </row>
   </sheetData>
@@ -16290,28 +16290,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.78066325514763</v>
+        <v>119.6331792124622</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.3148407765059</v>
+        <v>163.6873936417952</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.0686524638403</v>
+        <v>148.0652985293673</v>
       </c>
       <c r="AD2" t="n">
-        <v>93780.66325514764</v>
+        <v>119633.1792124622</v>
       </c>
       <c r="AE2" t="n">
-        <v>128314.8407765059</v>
+        <v>163687.3936417952</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.455213951103206e-06</v>
+        <v>6.926530500473311e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.196180555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>116068.6524638403</v>
+        <v>148065.2985293673</v>
       </c>
     </row>
     <row r="3">
@@ -16396,28 +16396,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.59374761544989</v>
+        <v>115.9783086925629</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.6401651495071</v>
+        <v>158.6866385549641</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.9853844756227</v>
+        <v>143.5418084894179</v>
       </c>
       <c r="AD3" t="n">
-        <v>81593.74761544989</v>
+        <v>115978.3086925629</v>
       </c>
       <c r="AE3" t="n">
-        <v>111640.1651495071</v>
+        <v>158686.6385549641</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.655908008137745e-06</v>
+        <v>7.328853924430782e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>100985.3844756227</v>
+        <v>143541.8084894179</v>
       </c>
     </row>
     <row r="4">
@@ -16502,28 +16502,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.45095088852875</v>
+        <v>115.8355119656418</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.4447843679868</v>
+        <v>158.4912577734437</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.8086505616719</v>
+        <v>143.3650745754672</v>
       </c>
       <c r="AD4" t="n">
-        <v>81450.95088852875</v>
+        <v>115835.5119656418</v>
       </c>
       <c r="AE4" t="n">
-        <v>111444.7843679868</v>
+        <v>158491.2577734437</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.668394111001195e-06</v>
+        <v>7.353884320099368e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.779513888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>100808.6505616719</v>
+        <v>143365.0745754672</v>
       </c>
     </row>
   </sheetData>
@@ -16799,28 +16799,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.7789360047839</v>
+        <v>200.0360324905942</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.9848333076993</v>
+        <v>273.6981246204235</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.9897895675283</v>
+        <v>247.576759744461</v>
       </c>
       <c r="AD2" t="n">
-        <v>160778.9360047839</v>
+        <v>200036.0324905942</v>
       </c>
       <c r="AE2" t="n">
-        <v>219984.8333076993</v>
+        <v>273698.1246204235</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.356526131822908e-06</v>
+        <v>4.173582885609693e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>198989.7895675283</v>
+        <v>247576.759744461</v>
       </c>
     </row>
     <row r="3">
@@ -16905,28 +16905,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.5950369335932</v>
+        <v>166.8520439108525</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.5811586282138</v>
+        <v>228.2943274713896</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.9193778749807</v>
+        <v>206.506237270687</v>
       </c>
       <c r="AD3" t="n">
-        <v>127595.0369335932</v>
+        <v>166852.0439108525</v>
       </c>
       <c r="AE3" t="n">
-        <v>174581.1586282137</v>
+        <v>228294.3274713896</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.729626598440464e-06</v>
+        <v>4.834371535928399e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.907986111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>157919.3778749807</v>
+        <v>206506.237270687</v>
       </c>
     </row>
     <row r="4">
@@ -17011,28 +17011,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.7453873450984</v>
+        <v>163.0023943223576</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.3138982266842</v>
+        <v>223.0270670698601</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.1548174135251</v>
+        <v>201.7416768092313</v>
       </c>
       <c r="AD4" t="n">
-        <v>123745.3873450984</v>
+        <v>163002.3943223576</v>
       </c>
       <c r="AE4" t="n">
-        <v>169313.8982266842</v>
+        <v>223027.0670698601</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.861780341100493e-06</v>
+        <v>5.068425634114235e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.543402777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>153154.8174135251</v>
+        <v>201741.6768092313</v>
       </c>
     </row>
     <row r="5">
@@ -17117,28 +17117,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>121.6445424699406</v>
+        <v>160.7309572466077</v>
       </c>
       <c r="AB5" t="n">
-        <v>166.4394295857601</v>
+        <v>219.9191866540892</v>
       </c>
       <c r="AC5" t="n">
-        <v>150.5546840253479</v>
+        <v>198.930408138403</v>
       </c>
       <c r="AD5" t="n">
-        <v>121644.5424699406</v>
+        <v>160730.9572466077</v>
       </c>
       <c r="AE5" t="n">
-        <v>166439.4295857601</v>
+        <v>219919.1866540892</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.931837746847979e-06</v>
+        <v>5.192502505441666e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.369791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>150554.6840253478</v>
+        <v>198930.408138403</v>
       </c>
     </row>
     <row r="6">
@@ -17223,28 +17223,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>120.0964931360134</v>
+        <v>149.5393378775089</v>
       </c>
       <c r="AB6" t="n">
-        <v>164.3213201919654</v>
+        <v>204.6063192938957</v>
       </c>
       <c r="AC6" t="n">
-        <v>148.638724019311</v>
+        <v>185.0789793473172</v>
       </c>
       <c r="AD6" t="n">
-        <v>120096.4931360134</v>
+        <v>149539.3378775089</v>
       </c>
       <c r="AE6" t="n">
-        <v>164321.3201919654</v>
+        <v>204606.3192938957</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.98231589892953e-06</v>
+        <v>5.281903063653086e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.239583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>148638.724019311</v>
+        <v>185078.9793473172</v>
       </c>
     </row>
     <row r="7">
@@ -17329,28 +17329,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>119.3906854000363</v>
+        <v>148.8335301415318</v>
       </c>
       <c r="AB7" t="n">
-        <v>163.3556029095624</v>
+        <v>203.6406020114926</v>
       </c>
       <c r="AC7" t="n">
-        <v>147.7651734389475</v>
+        <v>184.2054287669537</v>
       </c>
       <c r="AD7" t="n">
-        <v>119390.6854000363</v>
+        <v>148833.5301415318</v>
       </c>
       <c r="AE7" t="n">
-        <v>163355.6029095624</v>
+        <v>203640.6020114926</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.99709363295439e-06</v>
+        <v>5.308075528698715e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.204861111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>147765.1734389475</v>
+        <v>184205.4287669537</v>
       </c>
     </row>
     <row r="8">
@@ -17435,28 +17435,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>118.5620352346532</v>
+        <v>148.0048799761487</v>
       </c>
       <c r="AB8" t="n">
-        <v>162.2218071958206</v>
+        <v>202.5068062977508</v>
       </c>
       <c r="AC8" t="n">
-        <v>146.7395855968325</v>
+        <v>183.1798409248388</v>
       </c>
       <c r="AD8" t="n">
-        <v>118562.0352346532</v>
+        <v>148004.8799761487</v>
       </c>
       <c r="AE8" t="n">
-        <v>162221.8071958206</v>
+        <v>202506.8062977508</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.015254821234101e-06</v>
+        <v>5.340240342643681e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.161458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>146739.5855968325</v>
+        <v>183179.8409248388</v>
       </c>
     </row>
     <row r="9">
@@ -17541,28 +17541,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>117.8954411820516</v>
+        <v>147.3382859235471</v>
       </c>
       <c r="AB9" t="n">
-        <v>161.3097438049974</v>
+        <v>201.5947429069276</v>
       </c>
       <c r="AC9" t="n">
-        <v>145.9145682559402</v>
+        <v>182.3548235839465</v>
       </c>
       <c r="AD9" t="n">
-        <v>117895.4411820516</v>
+        <v>147338.2859235471</v>
       </c>
       <c r="AE9" t="n">
-        <v>161309.7438049974</v>
+        <v>201594.7429069276</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.030256460319944e-06</v>
+        <v>5.366809360190003e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.126736111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>145914.5682559402</v>
+        <v>182354.8235839464</v>
       </c>
     </row>
     <row r="10">
@@ -17647,28 +17647,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>117.0700388209788</v>
+        <v>146.5128835624743</v>
       </c>
       <c r="AB10" t="n">
-        <v>160.180391880396</v>
+        <v>200.4653909823263</v>
       </c>
       <c r="AC10" t="n">
-        <v>144.8930000939671</v>
+        <v>181.3332554219733</v>
       </c>
       <c r="AD10" t="n">
-        <v>117070.0388209788</v>
+        <v>146512.8835624743</v>
       </c>
       <c r="AE10" t="n">
-        <v>160180.391880396</v>
+        <v>200465.3909823263</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.052248912976469e-06</v>
+        <v>5.405759628035688e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.074652777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>144893.0000939671</v>
+        <v>181333.2554219733</v>
       </c>
     </row>
     <row r="11">
@@ -17753,28 +17753,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>116.5197513610299</v>
+        <v>145.9625961025255</v>
       </c>
       <c r="AB11" t="n">
-        <v>159.427464300725</v>
+        <v>199.7124634026553</v>
       </c>
       <c r="AC11" t="n">
-        <v>144.2119308657591</v>
+        <v>180.6521861937654</v>
       </c>
       <c r="AD11" t="n">
-        <v>116519.75136103</v>
+        <v>145962.5961025255</v>
       </c>
       <c r="AE11" t="n">
-        <v>159427.464300725</v>
+        <v>199712.4634026553</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.048193743538671e-06</v>
+        <v>5.398577621634277e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>144211.9308657591</v>
+        <v>180652.1861937654</v>
       </c>
     </row>
     <row r="12">
@@ -17859,28 +17859,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>115.9696896088087</v>
+        <v>145.4125343503042</v>
       </c>
       <c r="AB12" t="n">
-        <v>158.6748455443244</v>
+        <v>198.9598446462547</v>
       </c>
       <c r="AC12" t="n">
-        <v>143.5311409871621</v>
+        <v>179.9713963151684</v>
       </c>
       <c r="AD12" t="n">
-        <v>115969.6896088087</v>
+        <v>145412.5343503042</v>
       </c>
       <c r="AE12" t="n">
-        <v>158674.8455443244</v>
+        <v>198959.8446462547</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.067076403681548e-06</v>
+        <v>5.432020215859249e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.039930555555554</v>
       </c>
       <c r="AH12" t="n">
-        <v>143531.1409871621</v>
+        <v>179971.3963151684</v>
       </c>
     </row>
     <row r="13">
@@ -17965,28 +17965,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>115.2211606312605</v>
+        <v>144.664005372756</v>
       </c>
       <c r="AB13" t="n">
-        <v>157.6506751744756</v>
+        <v>197.9356742764058</v>
       </c>
       <c r="AC13" t="n">
-        <v>142.6047159999792</v>
+        <v>179.0449713279855</v>
       </c>
       <c r="AD13" t="n">
-        <v>115221.1606312605</v>
+        <v>144664.005372756</v>
       </c>
       <c r="AE13" t="n">
-        <v>157650.6751744756</v>
+        <v>197935.6742764059</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.06886764416941e-06</v>
+        <v>5.43519263586478e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.039930555555554</v>
       </c>
       <c r="AH13" t="n">
-        <v>142604.7159999792</v>
+        <v>179044.9713279855</v>
       </c>
     </row>
     <row r="14">
@@ -18071,28 +18071,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>104.6394159357593</v>
+        <v>143.8110820584469</v>
       </c>
       <c r="AB14" t="n">
-        <v>143.1722652484696</v>
+        <v>196.7686669694478</v>
       </c>
       <c r="AC14" t="n">
-        <v>129.5081051967307</v>
+        <v>177.9893415604981</v>
       </c>
       <c r="AD14" t="n">
-        <v>104639.4159357593</v>
+        <v>143811.0820584469</v>
       </c>
       <c r="AE14" t="n">
-        <v>143172.2652484696</v>
+        <v>196768.6669694479</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.085038565240385e-06</v>
+        <v>5.463832538692489e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.996527777777779</v>
       </c>
       <c r="AH14" t="n">
-        <v>129508.1051967307</v>
+        <v>177989.3415604981</v>
       </c>
     </row>
   </sheetData>
@@ -18368,28 +18368,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.7338793169617</v>
+        <v>221.7448377860892</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.9738700454029</v>
+        <v>303.4010697506018</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.5482936762354</v>
+        <v>274.4448974797698</v>
       </c>
       <c r="AD2" t="n">
-        <v>171733.8793169617</v>
+        <v>221744.8377860893</v>
       </c>
       <c r="AE2" t="n">
-        <v>234973.8700454029</v>
+        <v>303401.0697506018</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.195407941289853e-06</v>
+        <v>3.828599748334829e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.635416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>212548.2936762354</v>
+        <v>274444.8974797698</v>
       </c>
     </row>
     <row r="3">
@@ -18474,28 +18474,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.8511510817666</v>
+        <v>184.7746665110481</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.1917352917601</v>
+        <v>252.81685040327</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.2765942394182</v>
+        <v>228.6883650315335</v>
       </c>
       <c r="AD3" t="n">
-        <v>144851.1510817666</v>
+        <v>184774.6665110481</v>
       </c>
       <c r="AE3" t="n">
-        <v>198191.7352917601</v>
+        <v>252816.85040327</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.592782506980268e-06</v>
+        <v>4.521586292468003e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.159722222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>179276.5942394182</v>
+        <v>228688.3650315335</v>
       </c>
     </row>
     <row r="4">
@@ -18580,28 +18580,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.2495183218933</v>
+        <v>170.2582850971953</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.2131371711379</v>
+        <v>232.9548969352969</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.2047254832833</v>
+        <v>210.7220085261108</v>
       </c>
       <c r="AD4" t="n">
-        <v>130249.5183218933</v>
+        <v>170258.2850971953</v>
       </c>
       <c r="AE4" t="n">
-        <v>178213.1371711379</v>
+        <v>232954.8969352969</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.728458303363095e-06</v>
+        <v>4.758193034257064e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.751736111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>161204.7254832833</v>
+        <v>210722.0085261108</v>
       </c>
     </row>
     <row r="5">
@@ -18686,28 +18686,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.7389557039009</v>
+        <v>167.7477224792029</v>
       </c>
       <c r="AB5" t="n">
-        <v>174.7780746389966</v>
+        <v>229.5198344031557</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.0975004980679</v>
+        <v>207.6147835408954</v>
       </c>
       <c r="AD5" t="n">
-        <v>127738.9557039009</v>
+        <v>167747.7224792029</v>
       </c>
       <c r="AE5" t="n">
-        <v>174778.0746389966</v>
+        <v>229519.8344031557</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.808630364862038e-06</v>
+        <v>4.898006108950599e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.534722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>158097.5004980679</v>
+        <v>207614.7835408954</v>
       </c>
     </row>
     <row r="6">
@@ -18792,28 +18792,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>126.050467255252</v>
+        <v>165.8886418299618</v>
       </c>
       <c r="AB6" t="n">
-        <v>172.4678102527034</v>
+        <v>226.9761582420156</v>
       </c>
       <c r="AC6" t="n">
-        <v>156.0077245023253</v>
+        <v>205.3138722625018</v>
       </c>
       <c r="AD6" t="n">
-        <v>126050.467255252</v>
+        <v>165888.6418299618</v>
       </c>
       <c r="AE6" t="n">
-        <v>172467.8102527034</v>
+        <v>226976.1582420156</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.860258344872607e-06</v>
+        <v>4.988040797974894e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>156007.7245023253</v>
+        <v>205313.8722625018</v>
       </c>
     </row>
     <row r="7">
@@ -18898,28 +18898,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>124.8532300109032</v>
+        <v>164.691404585613</v>
       </c>
       <c r="AB7" t="n">
-        <v>170.8296974366067</v>
+        <v>225.3380454259189</v>
       </c>
       <c r="AC7" t="n">
-        <v>154.5259508742906</v>
+        <v>203.8320986344671</v>
       </c>
       <c r="AD7" t="n">
-        <v>124853.2300109032</v>
+        <v>164691.4045856131</v>
       </c>
       <c r="AE7" t="n">
-        <v>170829.6974366067</v>
+        <v>225338.0454259189</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.894238233510347e-06</v>
+        <v>5.047298756662273e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.309027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>154525.9508742906</v>
+        <v>203832.0986344671</v>
       </c>
     </row>
     <row r="8">
@@ -19004,28 +19004,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>124.137614699968</v>
+        <v>163.9757892746778</v>
       </c>
       <c r="AB8" t="n">
-        <v>169.8505609974662</v>
+        <v>224.3589089867784</v>
       </c>
       <c r="AC8" t="n">
-        <v>153.6402618426748</v>
+        <v>202.9464096028512</v>
       </c>
       <c r="AD8" t="n">
-        <v>124137.614699968</v>
+        <v>163975.7892746778</v>
       </c>
       <c r="AE8" t="n">
-        <v>169850.5609974662</v>
+        <v>224358.9089867784</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.912958860822962e-06</v>
+        <v>5.079945896025191e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>153640.2618426748</v>
+        <v>202946.4096028513</v>
       </c>
     </row>
     <row r="9">
@@ -19110,28 +19110,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>123.5993675477965</v>
+        <v>153.6060321378241</v>
       </c>
       <c r="AB9" t="n">
-        <v>169.1141074980771</v>
+        <v>210.1705497907448</v>
       </c>
       <c r="AC9" t="n">
-        <v>152.9740944316482</v>
+        <v>190.1121674949954</v>
       </c>
       <c r="AD9" t="n">
-        <v>123599.3675477965</v>
+        <v>153606.0321378241</v>
       </c>
       <c r="AE9" t="n">
-        <v>169114.1074980772</v>
+        <v>210170.5497907448</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.925683037199504e-06</v>
+        <v>5.102135748560923e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.230902777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>152974.0944316482</v>
+        <v>190112.1674949954</v>
       </c>
     </row>
     <row r="10">
@@ -19216,28 +19216,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>123.0511671755652</v>
+        <v>153.0578317655928</v>
       </c>
       <c r="AB10" t="n">
-        <v>168.3640355638971</v>
+        <v>209.4204778565648</v>
       </c>
       <c r="AC10" t="n">
-        <v>152.2956083101335</v>
+        <v>189.4336813734807</v>
       </c>
       <c r="AD10" t="n">
-        <v>123051.1671755652</v>
+        <v>153057.8317655928</v>
       </c>
       <c r="AE10" t="n">
-        <v>168364.0355638971</v>
+        <v>209420.4778565648</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.926950579673796e-06</v>
+        <v>5.104346231955287e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.230902777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>152295.6083101335</v>
+        <v>189433.6813734807</v>
       </c>
     </row>
     <row r="11">
@@ -19322,28 +19322,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>122.4040090161865</v>
+        <v>152.410673606214</v>
       </c>
       <c r="AB11" t="n">
-        <v>167.4785652196325</v>
+        <v>208.5350075123002</v>
       </c>
       <c r="AC11" t="n">
-        <v>151.4946460127598</v>
+        <v>188.632719076107</v>
       </c>
       <c r="AD11" t="n">
-        <v>122404.0090161865</v>
+        <v>152410.673606214</v>
       </c>
       <c r="AE11" t="n">
-        <v>167478.5652196325</v>
+        <v>208535.0075123002</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.947206883445648e-06</v>
+        <v>5.139671456969069e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.178819444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>151494.6460127598</v>
+        <v>188632.719076107</v>
       </c>
     </row>
     <row r="12">
@@ -19428,28 +19428,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>121.8763858052914</v>
+        <v>151.883050395319</v>
       </c>
       <c r="AB12" t="n">
-        <v>166.7566478653931</v>
+        <v>207.8130901580608</v>
       </c>
       <c r="AC12" t="n">
-        <v>150.8416274375913</v>
+        <v>187.9797005009385</v>
       </c>
       <c r="AD12" t="n">
-        <v>121876.3858052914</v>
+        <v>151883.050395319</v>
       </c>
       <c r="AE12" t="n">
-        <v>166756.6478653931</v>
+        <v>207813.0901580607</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.945427448818277e-06</v>
+        <v>5.13656827835775e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH12" t="n">
-        <v>150841.6274375913</v>
+        <v>187979.7005009385</v>
       </c>
     </row>
     <row r="13">
@@ -19534,28 +19534,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>121.3106937452238</v>
+        <v>151.3173583352514</v>
       </c>
       <c r="AB13" t="n">
-        <v>165.9826430322366</v>
+        <v>207.0390853249043</v>
       </c>
       <c r="AC13" t="n">
-        <v>150.1414925393885</v>
+        <v>187.2795656027357</v>
       </c>
       <c r="AD13" t="n">
-        <v>121310.6937452238</v>
+        <v>151317.3583352514</v>
       </c>
       <c r="AE13" t="n">
-        <v>165982.6430322366</v>
+        <v>207039.0853249043</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.964830599001664e-06</v>
+        <v>5.17040567800994e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>150141.4925393885</v>
+        <v>187279.5656027357</v>
       </c>
     </row>
     <row r="14">
@@ -19640,28 +19640,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>120.7640700938002</v>
+        <v>150.7707346838278</v>
       </c>
       <c r="AB14" t="n">
-        <v>165.2347284370257</v>
+        <v>206.2911707296934</v>
       </c>
       <c r="AC14" t="n">
-        <v>149.4649578634395</v>
+        <v>186.6030309267867</v>
       </c>
       <c r="AD14" t="n">
-        <v>120764.0700938002</v>
+        <v>150770.7346838278</v>
       </c>
       <c r="AE14" t="n">
-        <v>165234.7284370257</v>
+        <v>206291.1707296934</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.967828824469699e-06</v>
+        <v>5.175634321423532e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.126736111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>149464.9578634395</v>
+        <v>186603.0309267867</v>
       </c>
     </row>
     <row r="15">
@@ -19746,28 +19746,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>120.1124407504089</v>
+        <v>150.1191053404364</v>
       </c>
       <c r="AB15" t="n">
-        <v>164.3431404215404</v>
+        <v>205.3995827142081</v>
       </c>
       <c r="AC15" t="n">
-        <v>148.6584617568002</v>
+        <v>185.7965348201474</v>
       </c>
       <c r="AD15" t="n">
-        <v>120112.4407504089</v>
+        <v>150119.1053404365</v>
       </c>
       <c r="AE15" t="n">
-        <v>164343.1404215404</v>
+        <v>205399.5827142081</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.964416210115838e-06</v>
+        <v>5.169683019977168e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>148658.4617568002</v>
+        <v>185796.5348201474</v>
       </c>
     </row>
     <row r="16">
@@ -19852,28 +19852,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>119.7410467917137</v>
+        <v>149.7477113817413</v>
       </c>
       <c r="AB16" t="n">
-        <v>163.8349828225088</v>
+        <v>204.8914251151765</v>
       </c>
       <c r="AC16" t="n">
-        <v>148.1988020058164</v>
+        <v>185.3368750691636</v>
       </c>
       <c r="AD16" t="n">
-        <v>119741.0467917137</v>
+        <v>149747.7113817413</v>
       </c>
       <c r="AE16" t="n">
-        <v>163834.9828225088</v>
+        <v>204891.4251151765</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.98245431455768e-06</v>
+        <v>5.201139899050812e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.092013888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>148198.8020058164</v>
+        <v>185336.8750691636</v>
       </c>
     </row>
     <row r="17">
@@ -19958,28 +19958,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>119.6876700697367</v>
+        <v>149.6943346597643</v>
       </c>
       <c r="AB17" t="n">
-        <v>163.7619504366851</v>
+        <v>204.8183927293528</v>
       </c>
       <c r="AC17" t="n">
-        <v>148.1327397283941</v>
+        <v>185.2708127917413</v>
       </c>
       <c r="AD17" t="n">
-        <v>119687.6700697367</v>
+        <v>149694.3346597643</v>
       </c>
       <c r="AE17" t="n">
-        <v>163761.9504366851</v>
+        <v>204818.3927293528</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.982259308023174e-06</v>
+        <v>5.200799824682448e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.092013888888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>148132.7397283941</v>
+        <v>185270.8127917413</v>
       </c>
     </row>
   </sheetData>
@@ -20255,28 +20255,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.1889179025695</v>
+        <v>268.1281289910965</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.1167738872305</v>
+        <v>366.8647350638231</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.1919449408951</v>
+        <v>331.8516796472205</v>
       </c>
       <c r="AD2" t="n">
-        <v>206188.9179025695</v>
+        <v>268128.1289910965</v>
       </c>
       <c r="AE2" t="n">
-        <v>282116.7738872305</v>
+        <v>366864.7350638231</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.907940787075727e-06</v>
+        <v>3.243372886622472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>255191.9449408951</v>
+        <v>331851.6796472205</v>
       </c>
     </row>
     <row r="3">
@@ -20361,28 +20361,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.5330229128373</v>
+        <v>212.1348086775118</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.6483641663782</v>
+        <v>290.2522039596903</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.6854325688173</v>
+        <v>262.5509409853897</v>
       </c>
       <c r="AD3" t="n">
-        <v>160533.0229128373</v>
+        <v>212134.8086775118</v>
       </c>
       <c r="AE3" t="n">
-        <v>219648.3641663782</v>
+        <v>290252.2039596903</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.33356413880216e-06</v>
+        <v>3.966904375782939e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>198685.4325688173</v>
+        <v>262550.9409853898</v>
       </c>
     </row>
     <row r="4">
@@ -20467,28 +20467,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>153.1108082996117</v>
+        <v>194.375258248988</v>
       </c>
       <c r="AB4" t="n">
-        <v>209.4929626875691</v>
+        <v>265.9528035673277</v>
       </c>
       <c r="AC4" t="n">
-        <v>189.4992483539471</v>
+        <v>240.5706412620438</v>
       </c>
       <c r="AD4" t="n">
-        <v>153110.8082996117</v>
+        <v>194375.258248988</v>
       </c>
       <c r="AE4" t="n">
-        <v>209492.9626875691</v>
+        <v>265952.8035673277</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.511224831388467e-06</v>
+        <v>4.268915778472307e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.133680555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>189499.2483539471</v>
+        <v>240570.6412620438</v>
       </c>
     </row>
     <row r="5">
@@ -20573,28 +20573,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>139.5541095539636</v>
+        <v>180.9038108493605</v>
       </c>
       <c r="AB5" t="n">
-        <v>190.9440893844444</v>
+        <v>247.5205749168522</v>
       </c>
       <c r="AC5" t="n">
-        <v>172.7206534853595</v>
+        <v>223.8975586441685</v>
       </c>
       <c r="AD5" t="n">
-        <v>139554.1095539636</v>
+        <v>180903.8108493605</v>
       </c>
       <c r="AE5" t="n">
-        <v>190944.0893844444</v>
+        <v>247520.5749168522</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.593573185785511e-06</v>
+        <v>4.408902523196555e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.873263888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>172720.6534853595</v>
+        <v>223897.5586441685</v>
       </c>
     </row>
     <row r="6">
@@ -20679,28 +20679,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>137.8103389231357</v>
+        <v>179.1600402185326</v>
       </c>
       <c r="AB6" t="n">
-        <v>188.5581854776161</v>
+        <v>245.1346710100239</v>
       </c>
       <c r="AC6" t="n">
-        <v>170.5624568987609</v>
+        <v>221.7393620575699</v>
       </c>
       <c r="AD6" t="n">
-        <v>137810.3389231357</v>
+        <v>179160.0402185326</v>
       </c>
       <c r="AE6" t="n">
-        <v>188558.1854776161</v>
+        <v>245134.6710100239</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.642370467791073e-06</v>
+        <v>4.491854668498866e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.725694444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>170562.4568987609</v>
+        <v>221739.3620575699</v>
       </c>
     </row>
     <row r="7">
@@ -20785,28 +20785,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>136.5162578001523</v>
+        <v>177.8659590955491</v>
       </c>
       <c r="AB7" t="n">
-        <v>186.7875665943211</v>
+        <v>243.3640521267289</v>
       </c>
       <c r="AC7" t="n">
-        <v>168.9608233966079</v>
+        <v>220.1377285554169</v>
       </c>
       <c r="AD7" t="n">
-        <v>136516.2578001523</v>
+        <v>177865.9590955491</v>
       </c>
       <c r="AE7" t="n">
-        <v>186787.5665943211</v>
+        <v>243364.0521267289</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.676439158410193e-06</v>
+        <v>4.549769184601926e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.630208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>168960.8233966079</v>
+        <v>220137.7285554169</v>
       </c>
     </row>
     <row r="8">
@@ -20891,28 +20891,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>135.1213890042303</v>
+        <v>176.4710902996272</v>
       </c>
       <c r="AB8" t="n">
-        <v>184.8790455704735</v>
+        <v>241.4555311028813</v>
       </c>
       <c r="AC8" t="n">
-        <v>167.2344489406496</v>
+        <v>218.4113540994585</v>
       </c>
       <c r="AD8" t="n">
-        <v>135121.3890042303</v>
+        <v>176471.0902996272</v>
       </c>
       <c r="AE8" t="n">
-        <v>184879.0455704735</v>
+        <v>241455.5311028812</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.712601850041123e-06</v>
+        <v>4.611243363642259e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.526041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>167234.4489406496</v>
+        <v>218411.3540994585</v>
       </c>
     </row>
     <row r="9">
@@ -20997,28 +20997,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>134.3809018686504</v>
+        <v>175.5600109634551</v>
       </c>
       <c r="AB9" t="n">
-        <v>183.8658784035867</v>
+        <v>240.2089521611477</v>
       </c>
       <c r="AC9" t="n">
-        <v>166.3179770261811</v>
+        <v>217.283746902339</v>
       </c>
       <c r="AD9" t="n">
-        <v>134380.9018686504</v>
+        <v>175560.010963455</v>
       </c>
       <c r="AE9" t="n">
-        <v>183865.8784035867</v>
+        <v>240208.9521611477</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.730718488008473e-06</v>
+        <v>4.642040447481594e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.482638888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>166317.9770261811</v>
+        <v>217283.746902339</v>
       </c>
     </row>
     <row r="10">
@@ -21103,28 +21103,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>134.2251465577367</v>
+        <v>175.4042556525414</v>
       </c>
       <c r="AB10" t="n">
-        <v>183.6527671157553</v>
+        <v>239.9958408733163</v>
       </c>
       <c r="AC10" t="n">
-        <v>166.1252047805567</v>
+        <v>217.0909746567146</v>
       </c>
       <c r="AD10" t="n">
-        <v>134225.1465577367</v>
+        <v>175404.2556525414</v>
       </c>
       <c r="AE10" t="n">
-        <v>183652.7671157553</v>
+        <v>239995.8408733163</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.727895115857717e-06</v>
+        <v>4.637240901948192e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.482638888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>166125.2047805567</v>
+        <v>217090.9746567147</v>
       </c>
     </row>
     <row r="11">
@@ -21209,28 +21209,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>133.5085432432684</v>
+        <v>174.6876523380731</v>
       </c>
       <c r="AB11" t="n">
-        <v>182.6722788465933</v>
+        <v>239.0153526041543</v>
       </c>
       <c r="AC11" t="n">
-        <v>165.2382929356793</v>
+        <v>216.2040628118372</v>
       </c>
       <c r="AD11" t="n">
-        <v>133508.5432432684</v>
+        <v>174687.6523380731</v>
       </c>
       <c r="AE11" t="n">
-        <v>182672.2788465933</v>
+        <v>239015.3526041543</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.748152811039389e-06</v>
+        <v>4.671677641150356e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.430555555555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>165238.2929356793</v>
+        <v>216204.0628118372</v>
       </c>
     </row>
     <row r="12">
@@ -21315,28 +21315,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>132.5218311051548</v>
+        <v>173.7009401999595</v>
       </c>
       <c r="AB12" t="n">
-        <v>181.3222157685596</v>
+        <v>237.6652895261206</v>
       </c>
       <c r="AC12" t="n">
-        <v>164.0170779829873</v>
+        <v>214.9828478591452</v>
       </c>
       <c r="AD12" t="n">
-        <v>132521.8311051548</v>
+        <v>173700.9401999595</v>
       </c>
       <c r="AE12" t="n">
-        <v>181322.2157685596</v>
+        <v>237665.2895261206</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.768292865714781e-06</v>
+        <v>4.705914399288629e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.378472222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>164017.0779829873</v>
+        <v>214982.8478591452</v>
       </c>
     </row>
     <row r="13">
@@ -21421,28 +21421,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>132.5945398154205</v>
+        <v>173.7736489102251</v>
       </c>
       <c r="AB13" t="n">
-        <v>181.421699033627</v>
+        <v>237.764772791188</v>
       </c>
       <c r="AC13" t="n">
-        <v>164.1070667048623</v>
+        <v>215.0728365810202</v>
       </c>
       <c r="AD13" t="n">
-        <v>132594.5398154205</v>
+        <v>173773.6489102251</v>
       </c>
       <c r="AE13" t="n">
-        <v>181421.699033627</v>
+        <v>237764.772791188</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.765657718374075e-06</v>
+        <v>4.701434823457453e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.387152777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>164107.0667048623</v>
+        <v>215072.8365810202</v>
       </c>
     </row>
     <row r="14">
@@ -21527,28 +21527,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>132.0578134043866</v>
+        <v>173.2369224991913</v>
       </c>
       <c r="AB14" t="n">
-        <v>180.6873262793527</v>
+        <v>237.0304000369137</v>
       </c>
       <c r="AC14" t="n">
-        <v>163.4427814555571</v>
+        <v>214.408551331715</v>
       </c>
       <c r="AD14" t="n">
-        <v>132057.8134043866</v>
+        <v>173236.9224991912</v>
       </c>
       <c r="AE14" t="n">
-        <v>180687.3262793527</v>
+        <v>237030.4000369137</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.765940055589151e-06</v>
+        <v>4.701914778010794e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.387152777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>163442.7814555571</v>
+        <v>214408.551331715</v>
       </c>
     </row>
     <row r="15">
@@ -21633,28 +21633,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>131.5250162507134</v>
+        <v>172.7041253455181</v>
       </c>
       <c r="AB15" t="n">
-        <v>179.958329708346</v>
+        <v>236.301403465907</v>
       </c>
       <c r="AC15" t="n">
-        <v>162.7833592941339</v>
+        <v>213.7491291702918</v>
       </c>
       <c r="AD15" t="n">
-        <v>131525.0162507134</v>
+        <v>172704.1253455181</v>
       </c>
       <c r="AE15" t="n">
-        <v>179958.329708346</v>
+        <v>236301.4034659069</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.78495076140424e-06</v>
+        <v>4.734231717935706e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.335069444444445</v>
       </c>
       <c r="AH15" t="n">
-        <v>162783.3592941339</v>
+        <v>213749.1291702918</v>
       </c>
     </row>
     <row r="16">
@@ -21739,28 +21739,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>131.243143862558</v>
+        <v>172.4222529573627</v>
       </c>
       <c r="AB16" t="n">
-        <v>179.5726594715398</v>
+        <v>235.9157332291007</v>
       </c>
       <c r="AC16" t="n">
-        <v>162.4344968834367</v>
+        <v>213.4002667595947</v>
       </c>
       <c r="AD16" t="n">
-        <v>131243.143862558</v>
+        <v>172422.2529573627</v>
       </c>
       <c r="AE16" t="n">
-        <v>179572.6594715398</v>
+        <v>235915.7332291007</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.786691840897206e-06</v>
+        <v>4.737191437681303e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.326388888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>162434.4968834367</v>
+        <v>213400.2667595947</v>
       </c>
     </row>
     <row r="17">
@@ -21845,28 +21845,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>130.7396136216606</v>
+        <v>171.9187227164653</v>
       </c>
       <c r="AB17" t="n">
-        <v>178.8837071817578</v>
+        <v>235.2267809393188</v>
       </c>
       <c r="AC17" t="n">
-        <v>161.8112972332408</v>
+        <v>212.7770671093987</v>
       </c>
       <c r="AD17" t="n">
-        <v>130739.6136216606</v>
+        <v>171918.7227164652</v>
       </c>
       <c r="AE17" t="n">
-        <v>178883.7071817578</v>
+        <v>235226.7809393188</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.786856537606e-06</v>
+        <v>4.737471411170752e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.326388888888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>161811.2972332408</v>
+        <v>212777.0671093987</v>
       </c>
     </row>
     <row r="18">
@@ -21951,28 +21951,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>129.8557912129359</v>
+        <v>171.0349003077405</v>
       </c>
       <c r="AB18" t="n">
-        <v>177.6744223706485</v>
+        <v>234.0174961282095</v>
       </c>
       <c r="AC18" t="n">
-        <v>160.7174248672614</v>
+        <v>211.6831947434194</v>
       </c>
       <c r="AD18" t="n">
-        <v>129855.7912129359</v>
+        <v>171034.9003077406</v>
       </c>
       <c r="AE18" t="n">
-        <v>177674.4223706485</v>
+        <v>234017.4961282095</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.80579665911732e-06</v>
+        <v>4.769668362457329e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.282986111111111</v>
       </c>
       <c r="AH18" t="n">
-        <v>160717.4248672614</v>
+        <v>211683.1947434194</v>
       </c>
     </row>
     <row r="19">
@@ -22057,28 +22057,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>130.0251302392231</v>
+        <v>171.2042393340278</v>
       </c>
       <c r="AB19" t="n">
-        <v>177.9061194971252</v>
+        <v>234.2491932546862</v>
       </c>
       <c r="AC19" t="n">
-        <v>160.9270091451762</v>
+        <v>211.8927790213342</v>
       </c>
       <c r="AD19" t="n">
-        <v>130025.1302392231</v>
+        <v>171204.2393340278</v>
       </c>
       <c r="AE19" t="n">
-        <v>177906.1194971252</v>
+        <v>234249.1932546862</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.803185039877871e-06</v>
+        <v>4.765228782838932e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>8</v>
+        <v>7.282986111111111</v>
       </c>
       <c r="AH19" t="n">
-        <v>160927.0091451762</v>
+        <v>211892.7790213342</v>
       </c>
     </row>
     <row r="20">
@@ -22163,28 +22163,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>129.7250059018286</v>
+        <v>170.9041149966333</v>
       </c>
       <c r="AB20" t="n">
-        <v>177.4954761381509</v>
+        <v>233.8385498957119</v>
       </c>
       <c r="AC20" t="n">
-        <v>160.5555570120407</v>
+        <v>211.5213268881987</v>
       </c>
       <c r="AD20" t="n">
-        <v>129725.0059018286</v>
+        <v>170904.1149966333</v>
       </c>
       <c r="AE20" t="n">
-        <v>177495.4761381509</v>
+        <v>233838.5498957119</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.80598488392737e-06</v>
+        <v>4.769988332159556e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7.274305555555555</v>
       </c>
       <c r="AH20" t="n">
-        <v>160555.5570120407</v>
+        <v>211521.3268881987</v>
       </c>
     </row>
     <row r="21">
@@ -22269,28 +22269,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>129.4540658097103</v>
+        <v>170.633174904515</v>
       </c>
       <c r="AB21" t="n">
-        <v>177.1247639510815</v>
+        <v>233.4678377086425</v>
       </c>
       <c r="AC21" t="n">
-        <v>160.2202250758074</v>
+        <v>211.1859949519653</v>
       </c>
       <c r="AD21" t="n">
-        <v>129454.0658097103</v>
+        <v>170633.1749045149</v>
       </c>
       <c r="AE21" t="n">
-        <v>177124.7639510815</v>
+        <v>233467.8377086425</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.805231984687169e-06</v>
+        <v>4.768708453350648e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>8</v>
+        <v>7.282986111111111</v>
       </c>
       <c r="AH21" t="n">
-        <v>160220.2250758074</v>
+        <v>211185.9949519653</v>
       </c>
     </row>
     <row r="22">
@@ -22375,28 +22375,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>128.9029660933716</v>
+        <v>170.0820751881763</v>
       </c>
       <c r="AB22" t="n">
-        <v>176.3707250063838</v>
+        <v>232.7137987639448</v>
       </c>
       <c r="AC22" t="n">
-        <v>159.538150549691</v>
+        <v>210.503920425849</v>
       </c>
       <c r="AD22" t="n">
-        <v>128902.9660933716</v>
+        <v>170082.0751881763</v>
       </c>
       <c r="AE22" t="n">
-        <v>176370.7250063838</v>
+        <v>232713.7987639448</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.808384750255513e-06</v>
+        <v>4.774067945862948e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>8</v>
+        <v>7.274305555555555</v>
       </c>
       <c r="AH22" t="n">
-        <v>159538.150549691</v>
+        <v>210503.920425849</v>
       </c>
     </row>
     <row r="23">
@@ -22481,28 +22481,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>128.3166675852156</v>
+        <v>169.4957766800203</v>
       </c>
       <c r="AB23" t="n">
-        <v>175.5685255218606</v>
+        <v>231.9115992794215</v>
       </c>
       <c r="AC23" t="n">
-        <v>158.8125118580764</v>
+        <v>209.7782817342343</v>
       </c>
       <c r="AD23" t="n">
-        <v>128316.6675852156</v>
+        <v>169495.7766800203</v>
       </c>
       <c r="AE23" t="n">
-        <v>175568.5255218605</v>
+        <v>231911.5992794215</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.808855312280639e-06</v>
+        <v>4.774867870118516e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>8</v>
+        <v>7.274305555555555</v>
       </c>
       <c r="AH23" t="n">
-        <v>158812.5118580764</v>
+        <v>209778.2817342343</v>
       </c>
     </row>
     <row r="24">
@@ -22587,28 +22587,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>127.7089636983077</v>
+        <v>168.8880727931124</v>
       </c>
       <c r="AB24" t="n">
-        <v>174.7370382537902</v>
+        <v>231.0801120113512</v>
       </c>
       <c r="AC24" t="n">
-        <v>158.0603805678707</v>
+        <v>209.0261504440286</v>
       </c>
       <c r="AD24" t="n">
-        <v>127708.9636983077</v>
+        <v>168888.0727931124</v>
       </c>
       <c r="AE24" t="n">
-        <v>174737.0382537902</v>
+        <v>231080.1120113512</v>
       </c>
       <c r="AF24" t="n">
-        <v>2.808949424685664e-06</v>
+        <v>4.775027854969629e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>8</v>
+        <v>7.274305555555555</v>
       </c>
       <c r="AH24" t="n">
-        <v>158060.3805678707</v>
+        <v>209026.1504440286</v>
       </c>
     </row>
     <row r="25">
@@ -22693,28 +22693,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>127.0559015000571</v>
+        <v>158.0682669801558</v>
       </c>
       <c r="AB25" t="n">
-        <v>173.8434897430734</v>
+        <v>216.2759763619277</v>
       </c>
       <c r="AC25" t="n">
-        <v>157.2521110729132</v>
+        <v>195.6349007232465</v>
       </c>
       <c r="AD25" t="n">
-        <v>127055.9015000571</v>
+        <v>158068.2669801558</v>
       </c>
       <c r="AE25" t="n">
-        <v>173843.4897430734</v>
+        <v>216275.9763619277</v>
       </c>
       <c r="AF25" t="n">
-        <v>2.829418872778643e-06</v>
+        <v>4.809824560086799e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>8</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="AH25" t="n">
-        <v>157252.1110729132</v>
+        <v>195634.9007232465</v>
       </c>
     </row>
   </sheetData>
@@ -22990,28 +22990,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.0589436840921</v>
+        <v>188.0143346352899</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.6348257129959</v>
+        <v>257.2495072549259</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.3454669081688</v>
+        <v>232.6979753345418</v>
       </c>
       <c r="AD2" t="n">
-        <v>140058.9436840921</v>
+        <v>188014.3346352899</v>
       </c>
       <c r="AE2" t="n">
-        <v>191634.8257129959</v>
+        <v>257249.5072549259</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.547569680763324e-06</v>
+        <v>4.59387099115896e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>173345.4669081688</v>
+        <v>232697.9753345418</v>
       </c>
     </row>
     <row r="3">
@@ -23096,28 +23096,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.585282668695</v>
+        <v>159.0178681133104</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.9901035944523</v>
+        <v>217.5752625257543</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.2436796725082</v>
+        <v>196.8101848391576</v>
       </c>
       <c r="AD3" t="n">
-        <v>120585.282668695</v>
+        <v>159017.8681133104</v>
       </c>
       <c r="AE3" t="n">
-        <v>164990.1035944523</v>
+        <v>217575.2625257543</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.873607488657509e-06</v>
+        <v>5.181794312360278e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.690972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>149243.6796725082</v>
+        <v>196810.1848391576</v>
       </c>
     </row>
     <row r="4">
@@ -23202,28 +23202,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.1392111437625</v>
+        <v>155.4012043877857</v>
       </c>
       <c r="AB4" t="n">
-        <v>160.2750365040961</v>
+        <v>212.6267836605513</v>
       </c>
       <c r="AC4" t="n">
-        <v>144.9786119676158</v>
+        <v>192.3339818516142</v>
       </c>
       <c r="AD4" t="n">
-        <v>117139.2111437625</v>
+        <v>155401.2043877857</v>
       </c>
       <c r="AE4" t="n">
-        <v>160275.0365040961</v>
+        <v>212626.7836605513</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.002327388300018e-06</v>
+        <v>5.413906751685368e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.361111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>144978.6119676158</v>
+        <v>192333.9818516142</v>
       </c>
     </row>
     <row r="5">
@@ -23308,28 +23308,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.4256974455239</v>
+        <v>144.2502260375365</v>
       </c>
       <c r="AB5" t="n">
-        <v>157.9305314672781</v>
+        <v>197.369523135303</v>
       </c>
       <c r="AC5" t="n">
-        <v>142.8578632009775</v>
+        <v>178.5328528571911</v>
       </c>
       <c r="AD5" t="n">
-        <v>115425.6974455239</v>
+        <v>144250.2260375365</v>
       </c>
       <c r="AE5" t="n">
-        <v>157930.5314672781</v>
+        <v>197369.523135303</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.06201656462228e-06</v>
+        <v>5.521540461437658e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>142857.8632009775</v>
+        <v>178532.8528571911</v>
       </c>
     </row>
     <row r="6">
@@ -23414,28 +23414,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>113.8857261857699</v>
+        <v>142.7102547777825</v>
       </c>
       <c r="AB6" t="n">
-        <v>155.8234748509466</v>
+        <v>195.2624665189715</v>
       </c>
       <c r="AC6" t="n">
-        <v>140.9519011108354</v>
+        <v>176.6268907670491</v>
       </c>
       <c r="AD6" t="n">
-        <v>113885.7261857699</v>
+        <v>142710.2547777825</v>
       </c>
       <c r="AE6" t="n">
-        <v>155823.4748509466</v>
+        <v>195262.4665189715</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.115215020278369e-06</v>
+        <v>5.617469865865072e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.092013888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>140951.9011108354</v>
+        <v>176626.8907670491</v>
       </c>
     </row>
     <row r="7">
@@ -23520,28 +23520,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>113.1077351828592</v>
+        <v>141.9322637748719</v>
       </c>
       <c r="AB7" t="n">
-        <v>154.7589932382241</v>
+        <v>194.1979849062491</v>
       </c>
       <c r="AC7" t="n">
-        <v>139.9890121292216</v>
+        <v>175.6640017854352</v>
       </c>
       <c r="AD7" t="n">
-        <v>113107.7351828593</v>
+        <v>141932.2637748719</v>
       </c>
       <c r="AE7" t="n">
-        <v>154758.9932382241</v>
+        <v>194197.9849062491</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.133949021887404e-06</v>
+        <v>5.651251703979225e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.048611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>139989.0121292216</v>
+        <v>175664.0017854352</v>
       </c>
     </row>
     <row r="8">
@@ -23626,28 +23626,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>112.4069585817475</v>
+        <v>141.2314871737601</v>
       </c>
       <c r="AB8" t="n">
-        <v>153.8001597765018</v>
+        <v>193.2391514445267</v>
       </c>
       <c r="AC8" t="n">
-        <v>139.1216883873545</v>
+        <v>174.7966780435681</v>
       </c>
       <c r="AD8" t="n">
-        <v>112406.9585817475</v>
+        <v>141231.4871737601</v>
       </c>
       <c r="AE8" t="n">
-        <v>153800.1597765018</v>
+        <v>193239.1514445267</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.146650471347877e-06</v>
+        <v>5.674155423026727e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.022569444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>139121.6883873545</v>
+        <v>174796.6780435681</v>
       </c>
     </row>
     <row r="9">
@@ -23732,28 +23732,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>101.8129483584537</v>
+        <v>140.1601929484976</v>
       </c>
       <c r="AB9" t="n">
-        <v>139.3049676142531</v>
+        <v>191.7733594233576</v>
       </c>
       <c r="AC9" t="n">
-        <v>126.0098970209363</v>
+        <v>173.4707791556469</v>
       </c>
       <c r="AD9" t="n">
-        <v>101812.9483584537</v>
+        <v>140160.1929484975</v>
       </c>
       <c r="AE9" t="n">
-        <v>139304.9676142531</v>
+        <v>191773.3594233576</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.168744375419401e-06</v>
+        <v>5.713995960367874e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.970486111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>126009.8970209363</v>
+        <v>173470.7791556469</v>
       </c>
     </row>
     <row r="10">
@@ -23838,28 +23838,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>100.9657950884653</v>
+        <v>139.3130396785091</v>
       </c>
       <c r="AB10" t="n">
-        <v>138.145855136491</v>
+        <v>190.6142469455954</v>
       </c>
       <c r="AC10" t="n">
-        <v>124.9614086112267</v>
+        <v>172.4222907459374</v>
       </c>
       <c r="AD10" t="n">
-        <v>100965.7950884653</v>
+        <v>139313.0396785091</v>
       </c>
       <c r="AE10" t="n">
-        <v>138145.855136491</v>
+        <v>190614.2469455954</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.180504034038116e-06</v>
+        <v>5.735201407662355e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>124961.4086112267</v>
+        <v>172422.2907459374</v>
       </c>
     </row>
     <row r="11">
@@ -23944,28 +23944,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>100.7545569813229</v>
+        <v>139.1018015713668</v>
       </c>
       <c r="AB11" t="n">
-        <v>137.8568298391313</v>
+        <v>190.3252216482358</v>
       </c>
       <c r="AC11" t="n">
-        <v>124.6999674825975</v>
+        <v>172.1608496173081</v>
       </c>
       <c r="AD11" t="n">
-        <v>100754.5569813229</v>
+        <v>139101.8015713668</v>
       </c>
       <c r="AE11" t="n">
-        <v>137856.8298391313</v>
+        <v>190325.2216482358</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.181165833008e-06</v>
+        <v>5.736394787813126e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>124699.9674825975</v>
+        <v>172160.8496173082</v>
       </c>
     </row>
     <row r="12">
@@ -24050,28 +24050,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>100.9636205489193</v>
+        <v>139.3108651389632</v>
       </c>
       <c r="AB12" t="n">
-        <v>138.1428798355503</v>
+        <v>190.6112716446547</v>
       </c>
       <c r="AC12" t="n">
-        <v>124.958717268832</v>
+        <v>172.4195994035426</v>
       </c>
       <c r="AD12" t="n">
-        <v>100963.6205489193</v>
+        <v>139310.8651389632</v>
       </c>
       <c r="AE12" t="n">
-        <v>138142.8798355503</v>
+        <v>190611.2716446547</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.179409520357153e-06</v>
+        <v>5.733227740489925e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.953125</v>
       </c>
       <c r="AH12" t="n">
-        <v>124958.717268832</v>
+        <v>172419.5994035426</v>
       </c>
     </row>
   </sheetData>
@@ -24347,28 +24347,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.7140138483639</v>
+        <v>161.6356445002478</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.6392157412369</v>
+        <v>221.1570196665037</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.3536484845841</v>
+        <v>200.0501041054227</v>
       </c>
       <c r="AD2" t="n">
-        <v>124714.0138483639</v>
+        <v>161635.6445002478</v>
       </c>
       <c r="AE2" t="n">
-        <v>170639.2157412368</v>
+        <v>221157.0196665037</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.869179368738434e-06</v>
+        <v>5.352971589716998e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>154353.6484845841</v>
+        <v>200050.1041054227</v>
       </c>
     </row>
     <row r="3">
@@ -24453,28 +24453,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.58147700835</v>
+        <v>145.4177668056623</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.565967119446</v>
+        <v>198.9670039225153</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.387039731251</v>
+        <v>179.9778723201508</v>
       </c>
       <c r="AD3" t="n">
-        <v>108581.47700835</v>
+        <v>145417.7668056623</v>
       </c>
       <c r="AE3" t="n">
-        <v>148565.9671194461</v>
+        <v>198967.0039225153</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.16757275039465e-06</v>
+        <v>5.909678260610014e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>134387.039731251</v>
+        <v>179977.8723201508</v>
       </c>
     </row>
     <row r="4">
@@ -24559,28 +24559,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.3917587289615</v>
+        <v>134.147009735941</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.5698979660357</v>
+        <v>183.5458568690212</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.6769112128316</v>
+        <v>166.0284978977214</v>
       </c>
       <c r="AD4" t="n">
-        <v>106391.7587289615</v>
+        <v>134147.009735941</v>
       </c>
       <c r="AE4" t="n">
-        <v>145569.8979660357</v>
+        <v>183545.8568690211</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.260293707889921e-06</v>
+        <v>6.082665929715477e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.057291666666668</v>
       </c>
       <c r="AH4" t="n">
-        <v>131676.9112128316</v>
+        <v>166028.4978977214</v>
       </c>
     </row>
     <row r="5">
@@ -24665,28 +24665,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>95.69021584559535</v>
+        <v>132.6117569889282</v>
       </c>
       <c r="AB5" t="n">
-        <v>130.9275748742699</v>
+        <v>181.4452563299884</v>
       </c>
       <c r="AC5" t="n">
-        <v>118.4320308863097</v>
+        <v>164.1283757259218</v>
       </c>
       <c r="AD5" t="n">
-        <v>95690.21584559535</v>
+        <v>132611.7569889282</v>
       </c>
       <c r="AE5" t="n">
-        <v>130927.5748742698</v>
+        <v>181445.2563299884</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.302822851676714e-06</v>
+        <v>6.162011717889673e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.970486111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>118432.0308863097</v>
+        <v>164128.3757259218</v>
       </c>
     </row>
     <row r="6">
@@ -24771,28 +24771,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>94.58388324464734</v>
+        <v>131.5054243879802</v>
       </c>
       <c r="AB6" t="n">
-        <v>129.4138418017039</v>
+        <v>179.9315232574224</v>
       </c>
       <c r="AC6" t="n">
-        <v>117.0627663736513</v>
+        <v>162.7591112132633</v>
       </c>
       <c r="AD6" t="n">
-        <v>94583.88324464734</v>
+        <v>131505.4243879802</v>
       </c>
       <c r="AE6" t="n">
-        <v>129413.8418017039</v>
+        <v>179931.5232574224</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.336310575244494e-06</v>
+        <v>6.224489105959504e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.901041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>117062.7663736513</v>
+        <v>162759.1112132633</v>
       </c>
     </row>
     <row r="7">
@@ -24877,28 +24877,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>93.21418683971334</v>
+        <v>130.1357279830462</v>
       </c>
       <c r="AB7" t="n">
-        <v>127.5397627537334</v>
+        <v>178.0574442094519</v>
       </c>
       <c r="AC7" t="n">
-        <v>115.3675467997321</v>
+        <v>161.0638916393441</v>
       </c>
       <c r="AD7" t="n">
-        <v>93214.18683971334</v>
+        <v>130135.7279830462</v>
       </c>
       <c r="AE7" t="n">
-        <v>127539.7627537334</v>
+        <v>178057.4442094519</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.369055894806021e-06</v>
+        <v>6.285581405457717e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.831597222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>115367.5467997321</v>
+        <v>161063.8916393441</v>
       </c>
     </row>
     <row r="8">
@@ -24983,28 +24983,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>93.37505568617728</v>
+        <v>130.2965968295102</v>
       </c>
       <c r="AB8" t="n">
-        <v>127.7598706064979</v>
+        <v>178.2775520622164</v>
       </c>
       <c r="AC8" t="n">
-        <v>115.5666478679521</v>
+        <v>161.2629927075641</v>
       </c>
       <c r="AD8" t="n">
-        <v>93375.05568617728</v>
+        <v>130296.5968295101</v>
       </c>
       <c r="AE8" t="n">
-        <v>127759.8706064979</v>
+        <v>178277.5520622164</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.368207433084589e-06</v>
+        <v>6.283998447090151e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.831597222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>115566.6478679521</v>
+        <v>161262.9927075641</v>
       </c>
     </row>
   </sheetData>
@@ -46917,28 +46917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.1004055150193</v>
+        <v>140.9676961009896</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.8030115282377</v>
+        <v>192.8782208611214</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.0786539368159</v>
+        <v>174.4701941684737</v>
       </c>
       <c r="AD2" t="n">
-        <v>105100.4055150193</v>
+        <v>140967.6961009896</v>
       </c>
       <c r="AE2" t="n">
-        <v>143803.0115282377</v>
+        <v>192878.2208611214</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.130736591298962e-06</v>
+        <v>6.020522564075643e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.604166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>130078.6539368159</v>
+        <v>174470.1941684737</v>
       </c>
     </row>
     <row r="3">
@@ -47023,28 +47023,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.209091173274</v>
+        <v>127.1096486213028</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.1104994563061</v>
+        <v>173.9170289255173</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.0248658240276</v>
+        <v>157.3186317789975</v>
       </c>
       <c r="AD3" t="n">
-        <v>100209.091173274</v>
+        <v>127109.6486213028</v>
       </c>
       <c r="AE3" t="n">
-        <v>137110.4994563061</v>
+        <v>173917.0289255173</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.385350305353386e-06</v>
+        <v>6.510154178197403e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.03125</v>
       </c>
       <c r="AH3" t="n">
-        <v>124024.8658240276</v>
+        <v>157318.6317789975</v>
       </c>
     </row>
     <row r="4">
@@ -47129,28 +47129,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.30052390123369</v>
+        <v>125.0824736326324</v>
       </c>
       <c r="AB4" t="n">
-        <v>122.1849164626851</v>
+        <v>171.1433586733712</v>
       </c>
       <c r="AC4" t="n">
-        <v>110.5237595231257</v>
+        <v>154.8096767228447</v>
       </c>
       <c r="AD4" t="n">
-        <v>89300.52390123368</v>
+        <v>125082.4736326324</v>
       </c>
       <c r="AE4" t="n">
-        <v>122184.9164626851</v>
+        <v>171143.3586733712</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.461188603248515e-06</v>
+        <v>6.655994037407429e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH4" t="n">
-        <v>110523.7595231257</v>
+        <v>154809.6767228447</v>
       </c>
     </row>
     <row r="5">
@@ -47235,28 +47235,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.01318844134278</v>
+        <v>123.7951381727415</v>
       </c>
       <c r="AB5" t="n">
-        <v>120.423527293231</v>
+        <v>169.3819695039171</v>
       </c>
       <c r="AC5" t="n">
-        <v>108.9304748638785</v>
+        <v>153.2163920635976</v>
       </c>
       <c r="AD5" t="n">
-        <v>88013.18844134278</v>
+        <v>123795.1381727415</v>
       </c>
       <c r="AE5" t="n">
-        <v>120423.527293231</v>
+        <v>169381.9695039171</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.504415061650947e-06</v>
+        <v>6.739120119908332e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>108930.4748638785</v>
+        <v>153216.3920635976</v>
       </c>
     </row>
     <row r="6">
@@ -47341,28 +47341,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>88.03106758230111</v>
+        <v>123.8130173136998</v>
       </c>
       <c r="AB6" t="n">
-        <v>120.4479903226622</v>
+        <v>169.4064325333483</v>
       </c>
       <c r="AC6" t="n">
-        <v>108.9526031761149</v>
+        <v>153.2385203758339</v>
       </c>
       <c r="AD6" t="n">
-        <v>88031.06758230111</v>
+        <v>123813.0173136998</v>
       </c>
       <c r="AE6" t="n">
-        <v>120447.9903226622</v>
+        <v>169406.4325333483</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.50617045082465e-06</v>
+        <v>6.742495798385527e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.788194444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>108952.6031761149</v>
+        <v>153238.5203758339</v>
       </c>
     </row>
   </sheetData>
@@ -47638,28 +47638,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.55936917172909</v>
+        <v>112.0822953175676</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.4883946954814</v>
+        <v>153.3559411753187</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.22985316668142</v>
+        <v>138.7198653860034</v>
       </c>
       <c r="AD2" t="n">
-        <v>78559.36917172909</v>
+        <v>112082.2953175676</v>
       </c>
       <c r="AE2" t="n">
-        <v>107488.3946954814</v>
+        <v>153355.9411753187</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.667338494049242e-06</v>
+        <v>7.564249889033428e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.970486111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>97229.85316668142</v>
+        <v>138719.8653860035</v>
       </c>
     </row>
     <row r="3">
@@ -47744,28 +47744,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.30602210560909</v>
+        <v>110.8289482514475</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.7735099458467</v>
+        <v>151.641056425684</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.67863461069547</v>
+        <v>137.1686468300175</v>
       </c>
       <c r="AD3" t="n">
-        <v>77306.02210560908</v>
+        <v>110828.9482514475</v>
       </c>
       <c r="AE3" t="n">
-        <v>105773.5099458467</v>
+        <v>151641.056425684</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.75771488417841e-06</v>
+        <v>7.750660169981063e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>95678.63461069547</v>
+        <v>137168.6468300175</v>
       </c>
     </row>
   </sheetData>
@@ -48041,28 +48041,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.4343384559335</v>
+        <v>215.8148761062776</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.7228044401056</v>
+        <v>295.2874345688417</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.9892595953709</v>
+        <v>267.1056162521958</v>
       </c>
       <c r="AD2" t="n">
-        <v>166434.3384559335</v>
+        <v>215814.8761062776</v>
       </c>
       <c r="AE2" t="n">
-        <v>227722.8044401056</v>
+        <v>295287.4345688417</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.269172373383646e-06</v>
+        <v>3.986846346232194e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.418402777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>205989.2595953709</v>
+        <v>267105.6162521958</v>
       </c>
     </row>
     <row r="3">
@@ -48147,28 +48147,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.1615717795681</v>
+        <v>180.7172243142965</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.1434901177437</v>
+        <v>247.2652789879608</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.7101464995517</v>
+        <v>223.6666278004203</v>
       </c>
       <c r="AD3" t="n">
-        <v>141161.5717795681</v>
+        <v>180717.2243142965</v>
       </c>
       <c r="AE3" t="n">
-        <v>193143.4901177437</v>
+        <v>247265.2789879608</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.659927642506746e-06</v>
+        <v>4.67338793965526e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.038194444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>174710.1464995517</v>
+        <v>223666.6278004203</v>
       </c>
     </row>
     <row r="4">
@@ -48253,28 +48253,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.8598734164644</v>
+        <v>166.5007772972134</v>
       </c>
       <c r="AB4" t="n">
-        <v>173.5752754709532</v>
+        <v>227.8137089938196</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.009494794483</v>
+        <v>206.0714883460638</v>
       </c>
       <c r="AD4" t="n">
-        <v>126859.8734164644</v>
+        <v>166500.7772972134</v>
       </c>
       <c r="AE4" t="n">
-        <v>173575.2754709532</v>
+        <v>227813.7089938196</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.797179446019932e-06</v>
+        <v>4.914533944149565e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.638888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>157009.494794483</v>
+        <v>206071.4883460638</v>
       </c>
     </row>
     <row r="5">
@@ -48359,28 +48359,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>124.6886290296303</v>
+        <v>164.1589407097871</v>
       </c>
       <c r="AB5" t="n">
-        <v>170.6044831123464</v>
+        <v>224.6095048603659</v>
       </c>
       <c r="AC5" t="n">
-        <v>154.3222306890474</v>
+        <v>203.1730889579771</v>
       </c>
       <c r="AD5" t="n">
-        <v>124688.6290296303</v>
+        <v>164158.9407097871</v>
       </c>
       <c r="AE5" t="n">
-        <v>170604.4831123464</v>
+        <v>224609.5048603659</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.872341734114238e-06</v>
+        <v>5.046591119346176e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.439236111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>154322.2306890474</v>
+        <v>203173.0889579771</v>
       </c>
     </row>
     <row r="6">
@@ -48465,28 +48465,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>123.3837085790418</v>
+        <v>162.8540202591986</v>
       </c>
       <c r="AB6" t="n">
-        <v>168.8190333828248</v>
+        <v>222.8240551308443</v>
       </c>
       <c r="AC6" t="n">
-        <v>152.7071817758163</v>
+        <v>201.5580400447461</v>
       </c>
       <c r="AD6" t="n">
-        <v>123383.7085790418</v>
+        <v>162854.0202591986</v>
       </c>
       <c r="AE6" t="n">
-        <v>168819.0333828248</v>
+        <v>222824.0551308443</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.909959806897762e-06</v>
+        <v>5.11268458927753e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH6" t="n">
-        <v>152707.1817758163</v>
+        <v>201558.0400447461</v>
       </c>
     </row>
     <row r="7">
@@ -48571,28 +48571,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>122.2161575086211</v>
+        <v>151.9469249277339</v>
       </c>
       <c r="AB7" t="n">
-        <v>167.2215384995581</v>
+        <v>207.9004861112562</v>
       </c>
       <c r="AC7" t="n">
-        <v>151.2621495621099</v>
+        <v>188.0587555070221</v>
       </c>
       <c r="AD7" t="n">
-        <v>122216.1575086211</v>
+        <v>151946.9249277339</v>
       </c>
       <c r="AE7" t="n">
-        <v>167221.5384995581</v>
+        <v>207900.4861112562</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.943885006044161e-06</v>
+        <v>5.172289825904104e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.256944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>151262.1495621099</v>
+        <v>188058.7555070221</v>
       </c>
     </row>
     <row r="8">
@@ -48677,28 +48677,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>121.4131985445959</v>
+        <v>151.1439659637088</v>
       </c>
       <c r="AB8" t="n">
-        <v>166.1228946209301</v>
+        <v>206.8018422326282</v>
       </c>
       <c r="AC8" t="n">
-        <v>150.2683587133014</v>
+        <v>187.0649646582136</v>
       </c>
       <c r="AD8" t="n">
-        <v>121413.1985445959</v>
+        <v>151143.9659637088</v>
       </c>
       <c r="AE8" t="n">
-        <v>166122.8946209301</v>
+        <v>206801.8422326282</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.963580332108832e-06</v>
+        <v>5.206893736862927e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>150268.3587133015</v>
+        <v>187064.9646582136</v>
       </c>
     </row>
     <row r="9">
@@ -48783,28 +48783,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>120.7913224024874</v>
+        <v>150.5220898216002</v>
       </c>
       <c r="AB9" t="n">
-        <v>165.2720162480585</v>
+        <v>205.9509638597567</v>
       </c>
       <c r="AC9" t="n">
-        <v>149.4986869781212</v>
+        <v>186.2952929230333</v>
       </c>
       <c r="AD9" t="n">
-        <v>120791.3224024874</v>
+        <v>150522.0898216002</v>
       </c>
       <c r="AE9" t="n">
-        <v>165272.0162480585</v>
+        <v>205950.9638597567</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.978524160760403e-06</v>
+        <v>5.233149454302935e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.178819444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>149498.6869781212</v>
+        <v>186295.2929230333</v>
       </c>
     </row>
     <row r="10">
@@ -48889,28 +48889,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>119.8277277720968</v>
+        <v>149.5584951912096</v>
       </c>
       <c r="AB10" t="n">
-        <v>163.9535835639639</v>
+        <v>204.6325311756621</v>
       </c>
       <c r="AC10" t="n">
-        <v>148.3060836589643</v>
+        <v>185.1026896038764</v>
       </c>
       <c r="AD10" t="n">
-        <v>119827.7277720968</v>
+        <v>149558.4951912096</v>
       </c>
       <c r="AE10" t="n">
-        <v>163953.5835639639</v>
+        <v>204632.5311756621</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.996865433158129e-06</v>
+        <v>5.26537434638334e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>148306.0836589643</v>
+        <v>185102.6896038764</v>
       </c>
     </row>
     <row r="11">
@@ -48995,28 +48995,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>119.5859227437157</v>
+        <v>149.3166901628285</v>
       </c>
       <c r="AB11" t="n">
-        <v>163.622735256448</v>
+        <v>204.3016828681462</v>
       </c>
       <c r="AC11" t="n">
-        <v>148.0068110495691</v>
+        <v>184.8034169944812</v>
       </c>
       <c r="AD11" t="n">
-        <v>119585.9227437157</v>
+        <v>149316.6901628285</v>
       </c>
       <c r="AE11" t="n">
-        <v>163622.735256448</v>
+        <v>204301.6828681462</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.996545384109578e-06</v>
+        <v>5.26481203283026e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>148006.811049569</v>
+        <v>184803.4169944812</v>
       </c>
     </row>
     <row r="12">
@@ -49101,28 +49101,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>118.8239192553929</v>
+        <v>148.5546866745057</v>
       </c>
       <c r="AB12" t="n">
-        <v>162.580128466504</v>
+        <v>203.2590760782021</v>
       </c>
       <c r="AC12" t="n">
-        <v>147.0637091883491</v>
+        <v>183.8603151332613</v>
       </c>
       <c r="AD12" t="n">
-        <v>118823.9192553929</v>
+        <v>148554.6866745057</v>
       </c>
       <c r="AE12" t="n">
-        <v>162580.128466504</v>
+        <v>203259.0760782021</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.013778794416166e-06</v>
+        <v>5.29509045491923e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.092013888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>147063.7091883491</v>
+        <v>183860.3151332613</v>
       </c>
     </row>
     <row r="13">
@@ -49207,28 +49207,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>118.453737054481</v>
+        <v>148.1845044735938</v>
       </c>
       <c r="AB13" t="n">
-        <v>162.0736288479305</v>
+        <v>202.7525764596286</v>
       </c>
       <c r="AC13" t="n">
-        <v>146.6055491824954</v>
+        <v>183.4021551274076</v>
       </c>
       <c r="AD13" t="n">
-        <v>118453.737054481</v>
+        <v>148184.5044735938</v>
       </c>
       <c r="AE13" t="n">
-        <v>162073.6288479305</v>
+        <v>202752.5764596286</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.015206705555855e-06</v>
+        <v>5.297599238463745e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>146605.5491824954</v>
+        <v>183402.1551274076</v>
       </c>
     </row>
     <row r="14">
@@ -49313,28 +49313,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>117.7546588192862</v>
+        <v>147.485426238399</v>
       </c>
       <c r="AB14" t="n">
-        <v>161.1171191653824</v>
+        <v>201.7960667770806</v>
       </c>
       <c r="AC14" t="n">
-        <v>145.7403274415797</v>
+        <v>182.5369333864919</v>
       </c>
       <c r="AD14" t="n">
-        <v>117754.6588192862</v>
+        <v>147485.426238399</v>
       </c>
       <c r="AE14" t="n">
-        <v>161117.1191653824</v>
+        <v>201796.0667770806</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.014591226616334e-06</v>
+        <v>5.296517866246281e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.092013888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>145740.3274415797</v>
+        <v>182536.9333864918</v>
       </c>
     </row>
     <row r="15">
@@ -49419,28 +49419,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>117.2224459628111</v>
+        <v>146.9532133819239</v>
       </c>
       <c r="AB15" t="n">
-        <v>160.3889220555793</v>
+        <v>201.0678696672775</v>
       </c>
       <c r="AC15" t="n">
-        <v>145.0816284419049</v>
+        <v>181.8782343868171</v>
       </c>
       <c r="AD15" t="n">
-        <v>117222.4459628111</v>
+        <v>146953.2133819239</v>
       </c>
       <c r="AE15" t="n">
-        <v>160388.9220555793</v>
+        <v>201067.8696672775</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.03234163923212e-06</v>
+        <v>5.327704640997921e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.048611111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>145081.6284419049</v>
+        <v>181878.2343868171</v>
       </c>
     </row>
     <row r="16">
@@ -49525,28 +49525,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>117.3962179275278</v>
+        <v>147.1269853466406</v>
       </c>
       <c r="AB16" t="n">
-        <v>160.6266845239827</v>
+        <v>201.3056321356808</v>
       </c>
       <c r="AC16" t="n">
-        <v>145.2966991940256</v>
+        <v>182.0933051389378</v>
       </c>
       <c r="AD16" t="n">
-        <v>117396.2179275278</v>
+        <v>147126.9853466406</v>
       </c>
       <c r="AE16" t="n">
-        <v>160626.6845239827</v>
+        <v>201305.6321356808</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.032218543444216e-06</v>
+        <v>5.327488366554429e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.048611111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>145296.6991940256</v>
+        <v>182093.3051389378</v>
       </c>
     </row>
   </sheetData>
@@ -49822,28 +49822,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.2635929871398</v>
+        <v>251.4678755031963</v>
       </c>
       <c r="AB2" t="n">
-        <v>274.0094829310576</v>
+        <v>344.0694412430052</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.8584024549224</v>
+        <v>311.2319366753691</v>
       </c>
       <c r="AD2" t="n">
-        <v>200263.5929871398</v>
+        <v>251467.8755031963</v>
       </c>
       <c r="AE2" t="n">
-        <v>274009.4829310576</v>
+        <v>344069.4412430052</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.968553780752301e-06</v>
+        <v>3.366007584737394e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.46006944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>247858.4024549224</v>
+        <v>311231.9366753691</v>
       </c>
     </row>
     <row r="3">
@@ -49928,28 +49928,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.4176446123811</v>
+        <v>207.6218376198865</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.0175220180198</v>
+        <v>284.0773578604191</v>
       </c>
       <c r="AC3" t="n">
-        <v>193.5919900921599</v>
+        <v>256.9654135313801</v>
       </c>
       <c r="AD3" t="n">
-        <v>156417.6446123811</v>
+        <v>207621.8376198865</v>
       </c>
       <c r="AE3" t="n">
-        <v>214017.5220180198</v>
+        <v>284077.3578604191</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.395131494504225e-06</v>
+        <v>4.095407936410886e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>193591.9900921599</v>
+        <v>256965.4135313801</v>
       </c>
     </row>
     <row r="4">
@@ -50034,28 +50034,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.075022792602</v>
+        <v>191.0213985362431</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.3392670274762</v>
+        <v>261.3639047465044</v>
       </c>
       <c r="AC4" t="n">
-        <v>185.7419755779037</v>
+        <v>236.4197005041186</v>
       </c>
       <c r="AD4" t="n">
-        <v>150075.022792602</v>
+        <v>191021.3985362431</v>
       </c>
       <c r="AE4" t="n">
-        <v>205339.2670274762</v>
+        <v>261363.9047465044</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.556216121409044e-06</v>
+        <v>4.370844696761424e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>185741.9755779037</v>
+        <v>236419.7005041186</v>
       </c>
     </row>
     <row r="5">
@@ -50140,28 +50140,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>136.9144989330118</v>
+        <v>177.9461260226734</v>
       </c>
       <c r="AB5" t="n">
-        <v>187.332457681458</v>
+        <v>243.4737400531355</v>
       </c>
       <c r="AC5" t="n">
-        <v>169.4537108431481</v>
+        <v>220.2369480200753</v>
       </c>
       <c r="AD5" t="n">
-        <v>136914.4989330118</v>
+        <v>177946.1260226734</v>
       </c>
       <c r="AE5" t="n">
-        <v>187332.457681458</v>
+        <v>243473.7400531356</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.635572244678061e-06</v>
+        <v>4.506534823914966e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
       <c r="AH5" t="n">
-        <v>169453.7108431481</v>
+        <v>220236.9480200753</v>
       </c>
     </row>
     <row r="6">
@@ -50246,28 +50246,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>135.1647047650181</v>
+        <v>176.1963318546797</v>
       </c>
       <c r="AB6" t="n">
-        <v>184.9383121053397</v>
+        <v>241.0795944770172</v>
       </c>
       <c r="AC6" t="n">
-        <v>167.2880591606093</v>
+        <v>218.0712963375365</v>
       </c>
       <c r="AD6" t="n">
-        <v>135164.704765018</v>
+        <v>176196.3318546797</v>
       </c>
       <c r="AE6" t="n">
-        <v>184938.3121053397</v>
+        <v>241079.5944770172</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.683779013731167e-06</v>
+        <v>4.588963026717954e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.673611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>167288.0591606093</v>
+        <v>218071.2963375365</v>
       </c>
     </row>
     <row r="7">
@@ -50352,28 +50352,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>133.7661361455361</v>
+        <v>174.7977632351977</v>
       </c>
       <c r="AB7" t="n">
-        <v>183.0247288196725</v>
+        <v>239.1660111913501</v>
       </c>
       <c r="AC7" t="n">
-        <v>165.5571055779946</v>
+        <v>216.3403427549218</v>
       </c>
       <c r="AD7" t="n">
-        <v>133766.1361455361</v>
+        <v>174797.7632351978</v>
       </c>
       <c r="AE7" t="n">
-        <v>183024.7288196725</v>
+        <v>239166.0111913501</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.720977937882383e-06</v>
+        <v>4.652569041479315e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.569444444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>165557.1055779946</v>
+        <v>216340.3427549218</v>
       </c>
     </row>
     <row r="8">
@@ -50458,28 +50458,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>132.7195013210558</v>
+        <v>173.5805362101252</v>
       </c>
       <c r="AB8" t="n">
-        <v>181.5926768785496</v>
+        <v>237.5005474753803</v>
       </c>
       <c r="AC8" t="n">
-        <v>164.2617266642345</v>
+        <v>214.8338285585106</v>
       </c>
       <c r="AD8" t="n">
-        <v>132719.5013210558</v>
+        <v>173580.5362101252</v>
       </c>
       <c r="AE8" t="n">
-        <v>181592.6768785496</v>
+        <v>237500.5474753803</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.752174739705628e-06</v>
+        <v>4.705912095950737e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.482638888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>164261.7266642345</v>
+        <v>214833.8285585106</v>
       </c>
     </row>
     <row r="9">
@@ -50564,28 +50564,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>131.8909380160177</v>
+        <v>172.7519729050872</v>
       </c>
       <c r="AB9" t="n">
-        <v>180.459000010964</v>
+        <v>236.3668706077947</v>
       </c>
       <c r="AC9" t="n">
-        <v>163.2362463257654</v>
+        <v>213.8083482200415</v>
       </c>
       <c r="AD9" t="n">
-        <v>131890.9380160177</v>
+        <v>172751.9729050872</v>
       </c>
       <c r="AE9" t="n">
-        <v>180459.000010964</v>
+        <v>236366.8706077947</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.772553487056327e-06</v>
+        <v>4.740757482864008e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.430555555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>163236.2463257654</v>
+        <v>213808.3482200415</v>
       </c>
     </row>
     <row r="10">
@@ -50670,28 +50670,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>131.2382824110711</v>
+        <v>172.0993173001406</v>
       </c>
       <c r="AB10" t="n">
-        <v>179.5660078191434</v>
+        <v>235.473878415974</v>
       </c>
       <c r="AC10" t="n">
-        <v>162.4284800554094</v>
+        <v>213.0005819496856</v>
       </c>
       <c r="AD10" t="n">
-        <v>131238.2824110711</v>
+        <v>172099.3173001406</v>
       </c>
       <c r="AE10" t="n">
-        <v>179566.0078191434</v>
+        <v>235473.878415974</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.788851740176151e-06</v>
+        <v>4.768625679382539e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.387152777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>162428.4800554094</v>
+        <v>213000.5819496856</v>
       </c>
     </row>
     <row r="11">
@@ -50776,28 +50776,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>130.9370317827989</v>
+        <v>171.7980666718684</v>
       </c>
       <c r="AB11" t="n">
-        <v>179.1538234193018</v>
+        <v>235.0616940161324</v>
       </c>
       <c r="AC11" t="n">
-        <v>162.0556339561842</v>
+        <v>212.6277358504603</v>
       </c>
       <c r="AD11" t="n">
-        <v>130937.0317827989</v>
+        <v>171798.0666718684</v>
       </c>
       <c r="AE11" t="n">
-        <v>179153.8234193018</v>
+        <v>235061.6940161324</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.787214797723068e-06</v>
+        <v>4.765826690212555e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.387152777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>162055.6339561841</v>
+        <v>212627.7358504602</v>
       </c>
     </row>
     <row r="12">
@@ -50882,28 +50882,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>130.1372155220093</v>
+        <v>170.9982504110788</v>
       </c>
       <c r="AB12" t="n">
-        <v>178.0594795258868</v>
+        <v>233.9673501227175</v>
       </c>
       <c r="AC12" t="n">
-        <v>161.0657327080351</v>
+        <v>211.6378346023112</v>
       </c>
       <c r="AD12" t="n">
-        <v>130137.2155220093</v>
+        <v>170998.2504110788</v>
       </c>
       <c r="AE12" t="n">
-        <v>178059.4795258869</v>
+        <v>233967.3501227175</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.808945801882835e-06</v>
+        <v>4.802984285570594e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.335069444444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>161065.7327080351</v>
+        <v>211637.8346023112</v>
       </c>
     </row>
     <row r="13">
@@ -50988,28 +50988,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>129.7717435359595</v>
+        <v>170.632778425029</v>
       </c>
       <c r="AB13" t="n">
-        <v>177.5594246310878</v>
+        <v>233.4672952279184</v>
       </c>
       <c r="AC13" t="n">
-        <v>160.613402350564</v>
+        <v>211.1855042448401</v>
       </c>
       <c r="AD13" t="n">
-        <v>129771.7435359595</v>
+        <v>170632.778425029</v>
       </c>
       <c r="AE13" t="n">
-        <v>177559.4246310877</v>
+        <v>233467.2952279184</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.809942201636886e-06</v>
+        <v>4.804688018108847e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.326388888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>160613.402350564</v>
+        <v>211185.5042448401</v>
       </c>
     </row>
     <row r="14">
@@ -51094,28 +51094,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>129.1970772453329</v>
+        <v>170.0581121344024</v>
       </c>
       <c r="AB14" t="n">
-        <v>176.7731408597653</v>
+        <v>232.681011456596</v>
       </c>
       <c r="AC14" t="n">
-        <v>159.9021603988201</v>
+        <v>210.4742622930963</v>
       </c>
       <c r="AD14" t="n">
-        <v>129197.0772453329</v>
+        <v>170058.1121344024</v>
       </c>
       <c r="AE14" t="n">
-        <v>176773.1408597653</v>
+        <v>232681.011456596</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.823512217334906e-06</v>
+        <v>4.827891232677404e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>159902.1603988201</v>
+        <v>210474.2622930963</v>
       </c>
     </row>
     <row r="15">
@@ -51200,28 +51200,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>128.9540626820066</v>
+        <v>169.8150975710761</v>
       </c>
       <c r="AB15" t="n">
-        <v>176.4406376131765</v>
+        <v>232.3485082100072</v>
       </c>
       <c r="AC15" t="n">
-        <v>159.6013907954144</v>
+        <v>210.1734926896906</v>
       </c>
       <c r="AD15" t="n">
-        <v>128954.0626820066</v>
+        <v>169815.097571076</v>
       </c>
       <c r="AE15" t="n">
-        <v>176440.6376131765</v>
+        <v>232348.5082100072</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.826501416597057e-06</v>
+        <v>4.833002430292156e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.282986111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>159601.3907954144</v>
+        <v>210173.4926896906</v>
       </c>
     </row>
     <row r="16">
@@ -51306,28 +51306,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>128.4379339726838</v>
+        <v>169.2989688617533</v>
       </c>
       <c r="AB16" t="n">
-        <v>175.7344475430898</v>
+        <v>231.6423181399205</v>
       </c>
       <c r="AC16" t="n">
-        <v>158.9625985144726</v>
+        <v>209.5347004087487</v>
       </c>
       <c r="AD16" t="n">
-        <v>128437.9339726838</v>
+        <v>169298.9688617533</v>
       </c>
       <c r="AE16" t="n">
-        <v>175734.4475430898</v>
+        <v>231642.3181399205</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.829419444448205e-06</v>
+        <v>4.837991932725605e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.274305555555555</v>
       </c>
       <c r="AH16" t="n">
-        <v>158962.5985144726</v>
+        <v>209534.7004087487</v>
       </c>
     </row>
     <row r="17">
@@ -51412,28 +51412,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>127.8804153801206</v>
+        <v>168.7414502691901</v>
       </c>
       <c r="AB17" t="n">
-        <v>174.9716260087609</v>
+        <v>230.8794966055916</v>
       </c>
       <c r="AC17" t="n">
-        <v>158.272579596753</v>
+        <v>208.8446814910291</v>
       </c>
       <c r="AD17" t="n">
-        <v>127880.4153801206</v>
+        <v>168741.4502691901</v>
       </c>
       <c r="AE17" t="n">
-        <v>174971.6260087609</v>
+        <v>230879.4966055916</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.827996016228133e-06</v>
+        <v>4.835558029099532e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.282986111111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>158272.579596753</v>
+        <v>208844.6814910292</v>
       </c>
     </row>
     <row r="18">
@@ -51518,28 +51518,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>127.4062816007999</v>
+        <v>158.1800914265973</v>
       </c>
       <c r="AB18" t="n">
-        <v>174.3228952545886</v>
+        <v>216.4289795028951</v>
       </c>
       <c r="AC18" t="n">
-        <v>157.6857627952594</v>
+        <v>195.7733014591813</v>
       </c>
       <c r="AD18" t="n">
-        <v>127406.2816007999</v>
+        <v>158180.0914265973</v>
       </c>
       <c r="AE18" t="n">
-        <v>174322.8952545886</v>
+        <v>216428.9795028951</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.847805392290802e-06</v>
+        <v>4.869429854562374e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.230902777777778</v>
       </c>
       <c r="AH18" t="n">
-        <v>157685.7627952594</v>
+        <v>195773.3014591813</v>
       </c>
     </row>
     <row r="19">
@@ -51624,28 +51624,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>127.2782061512301</v>
+        <v>158.0520159770274</v>
       </c>
       <c r="AB19" t="n">
-        <v>174.1476567741971</v>
+        <v>216.2537410225036</v>
       </c>
       <c r="AC19" t="n">
-        <v>157.5272488294876</v>
+        <v>195.6147874934096</v>
       </c>
       <c r="AD19" t="n">
-        <v>127278.2061512301</v>
+        <v>158052.0159770274</v>
       </c>
       <c r="AE19" t="n">
-        <v>174147.6567741971</v>
+        <v>216253.7410225036</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.84638196407073e-06</v>
+        <v>4.866995950936302e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>8</v>
+        <v>7.230902777777778</v>
       </c>
       <c r="AH19" t="n">
-        <v>157527.2488294876</v>
+        <v>195614.7874934096</v>
       </c>
     </row>
     <row r="20">
@@ -51730,28 +51730,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>126.9076016254872</v>
+        <v>157.6814114512845</v>
       </c>
       <c r="AB20" t="n">
-        <v>173.6405793121582</v>
+        <v>215.7466635604647</v>
       </c>
       <c r="AC20" t="n">
-        <v>157.0685661287379</v>
+        <v>195.1561047926598</v>
       </c>
       <c r="AD20" t="n">
-        <v>126907.6016254872</v>
+        <v>157681.4114512845</v>
       </c>
       <c r="AE20" t="n">
-        <v>173640.5793121582</v>
+        <v>215746.6635604647</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.847805392290802e-06</v>
+        <v>4.869429854562374e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7.230902777777778</v>
       </c>
       <c r="AH20" t="n">
-        <v>157068.5661287379</v>
+        <v>195156.1047926598</v>
       </c>
     </row>
     <row r="21">
@@ -51836,28 +51836,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>126.3618085113825</v>
+        <v>157.1356183371798</v>
       </c>
       <c r="AB21" t="n">
-        <v>172.8938010947477</v>
+        <v>214.9998853430542</v>
       </c>
       <c r="AC21" t="n">
-        <v>156.393059376287</v>
+        <v>194.4805980402089</v>
       </c>
       <c r="AD21" t="n">
-        <v>126361.8085113825</v>
+        <v>157135.6183371798</v>
       </c>
       <c r="AE21" t="n">
-        <v>172893.8010947477</v>
+        <v>214999.8853430542</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.850747143945618e-06</v>
+        <v>4.874459922056258e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>8</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="AH21" t="n">
-        <v>156393.059376287</v>
+        <v>194480.5980402089</v>
       </c>
     </row>
     <row r="22">
@@ -51942,28 +51942,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>125.9231175119316</v>
+        <v>156.6969273377289</v>
       </c>
       <c r="AB22" t="n">
-        <v>172.2935647156183</v>
+        <v>214.3996489639248</v>
       </c>
       <c r="AC22" t="n">
-        <v>155.8501087147444</v>
+        <v>193.9376473786664</v>
       </c>
       <c r="AD22" t="n">
-        <v>125923.1175119315</v>
+        <v>156696.9273377289</v>
       </c>
       <c r="AE22" t="n">
-        <v>172293.5647156183</v>
+        <v>214399.6489639248</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.848849239652188e-06</v>
+        <v>4.871214717221495e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>8</v>
+        <v>7.230902777777778</v>
       </c>
       <c r="AH22" t="n">
-        <v>155850.1087147444</v>
+        <v>193937.6473786664</v>
       </c>
     </row>
     <row r="23">
@@ -52048,28 +52048,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>125.7847706888483</v>
+        <v>156.5585805146456</v>
       </c>
       <c r="AB23" t="n">
-        <v>172.1042724888447</v>
+        <v>214.2103567371513</v>
       </c>
       <c r="AC23" t="n">
-        <v>155.6788822724208</v>
+        <v>193.7664209363427</v>
       </c>
       <c r="AD23" t="n">
-        <v>125784.7706888483</v>
+        <v>156558.5805146456</v>
       </c>
       <c r="AE23" t="n">
-        <v>172104.2724888447</v>
+        <v>214210.3567371513</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.849323715725546e-06</v>
+        <v>4.872026018430185e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>8</v>
+        <v>7.230902777777778</v>
       </c>
       <c r="AH23" t="n">
-        <v>155678.8822724208</v>
+        <v>193766.4209363427</v>
       </c>
     </row>
   </sheetData>
@@ -52345,28 +52345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.03660329633958</v>
+        <v>104.5029763087565</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.5636586606569</v>
+        <v>142.9855825315131</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.15688141307204</v>
+        <v>129.3392392162695</v>
       </c>
       <c r="AD2" t="n">
-        <v>72036.60329633958</v>
+        <v>104502.9763087565</v>
       </c>
       <c r="AE2" t="n">
-        <v>98563.6586606569</v>
+        <v>142985.5825315131</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.814973828820308e-06</v>
+        <v>8.177246055718038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.935763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>89156.88141307204</v>
+        <v>129339.2392162695</v>
       </c>
     </row>
   </sheetData>
@@ -52642,28 +52642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.6789854599282</v>
+        <v>167.1067100142247</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.4325089392643</v>
+        <v>228.6427728690989</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.4985993142408</v>
+        <v>206.8214275286852</v>
       </c>
       <c r="AD2" t="n">
-        <v>129678.9854599282</v>
+        <v>167106.7100142247</v>
       </c>
       <c r="AE2" t="n">
-        <v>177432.5089392643</v>
+        <v>228642.7728690989</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.758955718033218e-06</v>
+        <v>5.083189777815691e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.220486111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>160498.5993142408</v>
+        <v>206821.4275286852</v>
       </c>
     </row>
     <row r="3">
@@ -52748,28 +52748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.6536640120271</v>
+        <v>149.9960477117519</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.1377130300856</v>
+        <v>205.2312098377226</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.4270260321753</v>
+        <v>185.6442312146809</v>
       </c>
       <c r="AD3" t="n">
-        <v>112653.6640120271</v>
+        <v>149996.0477117519</v>
       </c>
       <c r="AE3" t="n">
-        <v>154137.7130300856</v>
+        <v>205231.2098377226</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.061961660246138e-06</v>
+        <v>5.641457784078628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.404513888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>139427.0260321753</v>
+        <v>185644.2312146809</v>
       </c>
     </row>
     <row r="4">
@@ -52854,28 +52854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.1020171763451</v>
+        <v>138.2368386101339</v>
       </c>
       <c r="AB4" t="n">
-        <v>150.6464372587936</v>
+        <v>189.141741165205</v>
       </c>
       <c r="AC4" t="n">
-        <v>136.2689527204581</v>
+        <v>171.0903188505521</v>
       </c>
       <c r="AD4" t="n">
-        <v>110102.0171763451</v>
+        <v>138236.8386101339</v>
       </c>
       <c r="AE4" t="n">
-        <v>150646.4372587937</v>
+        <v>189141.741165205</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.167231207644247e-06</v>
+        <v>5.835409823160579e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.161458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>136268.9527204581</v>
+        <v>171090.3188505521</v>
       </c>
     </row>
     <row r="5">
@@ -52960,28 +52960,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.388872590748</v>
+        <v>136.5236940245368</v>
       </c>
       <c r="AB5" t="n">
-        <v>148.3024372581759</v>
+        <v>186.7977411645871</v>
       </c>
       <c r="AC5" t="n">
-        <v>134.1486607900738</v>
+        <v>168.9700269201678</v>
       </c>
       <c r="AD5" t="n">
-        <v>108388.872590748</v>
+        <v>136523.6940245368</v>
       </c>
       <c r="AE5" t="n">
-        <v>148302.4372581759</v>
+        <v>186797.7411645871</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.232655617345131e-06</v>
+        <v>5.955949884183464e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.013888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>134148.6607900738</v>
+        <v>168970.0269201678</v>
       </c>
     </row>
     <row r="6">
@@ -53066,28 +53066,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>97.76542427442753</v>
+        <v>135.193059320173</v>
       </c>
       <c r="AB6" t="n">
-        <v>133.7669665983311</v>
+        <v>184.9771080586174</v>
       </c>
       <c r="AC6" t="n">
-        <v>121.0004350493388</v>
+        <v>167.3231524825566</v>
       </c>
       <c r="AD6" t="n">
-        <v>97765.42427442753</v>
+        <v>135193.059320173</v>
       </c>
       <c r="AE6" t="n">
-        <v>133766.9665983311</v>
+        <v>184977.1080586174</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.265890381378488e-06</v>
+        <v>6.017182694735025e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>121000.4350493388</v>
+        <v>167323.1524825566</v>
       </c>
     </row>
     <row r="7">
@@ -53172,28 +53172,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>97.13399130143864</v>
+        <v>134.5616263471841</v>
       </c>
       <c r="AB7" t="n">
-        <v>132.9030121478314</v>
+        <v>184.1131536081177</v>
       </c>
       <c r="AC7" t="n">
-        <v>120.2189351990268</v>
+        <v>166.5416526322446</v>
       </c>
       <c r="AD7" t="n">
-        <v>97133.99130143864</v>
+        <v>134561.6263471841</v>
       </c>
       <c r="AE7" t="n">
-        <v>132903.0121478314</v>
+        <v>184113.1536081177</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.276237053200193e-06</v>
+        <v>6.036245739529379e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>120218.9351990268</v>
+        <v>166541.6526322447</v>
       </c>
     </row>
     <row r="8">
@@ -53278,28 +53278,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>96.09163509685689</v>
+        <v>133.5192701426023</v>
       </c>
       <c r="AB8" t="n">
-        <v>131.4768144032131</v>
+        <v>182.6869558634994</v>
       </c>
       <c r="AC8" t="n">
-        <v>118.9288517654734</v>
+        <v>165.2515691986912</v>
       </c>
       <c r="AD8" t="n">
-        <v>96091.63509685689</v>
+        <v>133519.2701426023</v>
       </c>
       <c r="AE8" t="n">
-        <v>131476.8144032131</v>
+        <v>182686.9558634994</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.299438680921593e-06</v>
+        <v>6.078993173310657e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH8" t="n">
-        <v>118928.8517654734</v>
+        <v>165251.5691986912</v>
       </c>
     </row>
     <row r="9">
@@ -53384,28 +53384,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>95.94525850426437</v>
+        <v>133.3728935500098</v>
       </c>
       <c r="AB9" t="n">
-        <v>131.2765354915487</v>
+        <v>182.4866769518349</v>
       </c>
       <c r="AC9" t="n">
-        <v>118.7476871920449</v>
+        <v>165.0704046252627</v>
       </c>
       <c r="AD9" t="n">
-        <v>95945.25850426438</v>
+        <v>133372.8935500098</v>
       </c>
       <c r="AE9" t="n">
-        <v>131276.5354915487</v>
+        <v>182486.6769518349</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.296904268884458e-06</v>
+        <v>6.07432369011608e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH9" t="n">
-        <v>118747.6871920449</v>
+        <v>165070.4046252627</v>
       </c>
     </row>
   </sheetData>
@@ -53681,28 +53681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.3702750876672</v>
+        <v>193.8537554376068</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.9020236587677</v>
+        <v>265.2392604137161</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.9190936815749</v>
+        <v>239.9251976655485</v>
       </c>
       <c r="AD2" t="n">
-        <v>145370.2750876672</v>
+        <v>193853.7554376068</v>
       </c>
       <c r="AE2" t="n">
-        <v>198902.0236587678</v>
+        <v>265239.2604137161</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.450283582632579e-06</v>
+        <v>4.377252802890322e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.914930555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>179919.0936815749</v>
+        <v>239925.1976655485</v>
       </c>
     </row>
     <row r="3">
@@ -53787,28 +53787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.7609236634188</v>
+        <v>162.6159806270278</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.3351557028242</v>
+        <v>222.4983588045409</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.1740461059774</v>
+        <v>201.2634277187074</v>
       </c>
       <c r="AD3" t="n">
-        <v>123760.9236634188</v>
+        <v>162615.9806270278</v>
       </c>
       <c r="AE3" t="n">
-        <v>169335.1557028242</v>
+        <v>222498.3588045409</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.808851851066898e-06</v>
+        <v>5.017808846752533e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>153174.0461059774</v>
+        <v>201263.4277187074</v>
       </c>
     </row>
     <row r="4">
@@ -53893,28 +53893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.1297121541527</v>
+        <v>158.8141769171695</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.3667719181033</v>
+        <v>217.2965632449731</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.6798378964982</v>
+        <v>196.5580842265771</v>
       </c>
       <c r="AD4" t="n">
-        <v>120129.7121541527</v>
+        <v>158814.1769171695</v>
       </c>
       <c r="AE4" t="n">
-        <v>164366.7719181033</v>
+        <v>217296.5632449731</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.942076037234159e-06</v>
+        <v>5.255804132868309e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>148679.8378964982</v>
+        <v>196558.0842265771</v>
       </c>
     </row>
     <row r="5">
@@ -53999,28 +53999,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.4393778266777</v>
+        <v>157.1238425896945</v>
       </c>
       <c r="AB5" t="n">
-        <v>162.0539819189656</v>
+        <v>214.9837732458355</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.5877773288564</v>
+        <v>194.4660236589353</v>
       </c>
       <c r="AD5" t="n">
-        <v>118439.3778266777</v>
+        <v>157123.8425896945</v>
       </c>
       <c r="AE5" t="n">
-        <v>162053.9819189656</v>
+        <v>214983.7732458355</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.00197157863602e-06</v>
+        <v>5.362803146509107e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.274305555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>146587.7773288563</v>
+        <v>194466.0236589353</v>
       </c>
     </row>
     <row r="6">
@@ -54105,28 +54105,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>117.2286988294848</v>
+        <v>146.3700810607426</v>
       </c>
       <c r="AB6" t="n">
-        <v>160.3974775036194</v>
+        <v>200.2700022994553</v>
       </c>
       <c r="AC6" t="n">
-        <v>145.0893673699917</v>
+        <v>181.1565143607657</v>
       </c>
       <c r="AD6" t="n">
-        <v>117228.6988294848</v>
+        <v>146370.0810607426</v>
       </c>
       <c r="AE6" t="n">
-        <v>160397.4775036194</v>
+        <v>200270.0022994553</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.039025813195003e-06</v>
+        <v>5.428997832394405e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH6" t="n">
-        <v>145089.3673699917</v>
+        <v>181156.5143607657</v>
       </c>
     </row>
     <row r="7">
@@ -54211,28 +54211,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>116.0304982934189</v>
+        <v>145.1718805246767</v>
       </c>
       <c r="AB7" t="n">
-        <v>158.7580466692979</v>
+        <v>198.6305714651338</v>
       </c>
       <c r="AC7" t="n">
-        <v>143.6064015135417</v>
+        <v>179.6735485043157</v>
       </c>
       <c r="AD7" t="n">
-        <v>116030.4982934189</v>
+        <v>145171.8805246767</v>
       </c>
       <c r="AE7" t="n">
-        <v>158758.0466692979</v>
+        <v>198630.5714651338</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.074117909060435e-06</v>
+        <v>5.491687300697181e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.100694444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>143606.4015135417</v>
+        <v>179673.5485043157</v>
       </c>
     </row>
     <row r="8">
@@ -54317,28 +54317,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>115.4111623407101</v>
+        <v>144.5525445719679</v>
       </c>
       <c r="AB8" t="n">
-        <v>157.9106438956283</v>
+        <v>197.7831686914642</v>
       </c>
       <c r="AC8" t="n">
-        <v>142.8398736712535</v>
+        <v>178.9070206620276</v>
       </c>
       <c r="AD8" t="n">
-        <v>115411.1623407101</v>
+        <v>144552.5445719679</v>
       </c>
       <c r="AE8" t="n">
-        <v>157910.6438956283</v>
+        <v>197783.1686914642</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.090267819845817e-06</v>
+        <v>5.520537937722545e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.065972222222223</v>
       </c>
       <c r="AH8" t="n">
-        <v>142839.8736712535</v>
+        <v>178907.0206620276</v>
       </c>
     </row>
     <row r="9">
@@ -54423,28 +54423,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>114.3850819030012</v>
+        <v>143.526464134259</v>
       </c>
       <c r="AB9" t="n">
-        <v>156.5067153732816</v>
+        <v>196.3792401691175</v>
       </c>
       <c r="AC9" t="n">
-        <v>141.5699341166531</v>
+        <v>177.6370811074272</v>
       </c>
       <c r="AD9" t="n">
-        <v>114385.0819030012</v>
+        <v>143526.464134259</v>
       </c>
       <c r="AE9" t="n">
-        <v>156506.7153732816</v>
+        <v>196379.2401691175</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.108304402451921e-06</v>
+        <v>5.552758976269565e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.022569444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>141569.9341166531</v>
+        <v>177637.0811074272</v>
       </c>
     </row>
     <row r="10">
@@ -54529,28 +54529,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>114.1201627324445</v>
+        <v>143.2615449637023</v>
       </c>
       <c r="AB10" t="n">
-        <v>156.1442412767171</v>
+        <v>196.016766072553</v>
       </c>
       <c r="AC10" t="n">
-        <v>141.242054039129</v>
+        <v>177.3092010299031</v>
       </c>
       <c r="AD10" t="n">
-        <v>114120.1627324445</v>
+        <v>143261.5449637023</v>
       </c>
       <c r="AE10" t="n">
-        <v>156144.2412767171</v>
+        <v>196016.766072553</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.106367419382646e-06</v>
+        <v>5.549298697373999e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.03125</v>
       </c>
       <c r="AH10" t="n">
-        <v>141242.0540391291</v>
+        <v>177309.2010299031</v>
       </c>
     </row>
     <row r="11">
@@ -54635,28 +54635,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>103.604835161036</v>
+        <v>142.3745512700734</v>
       </c>
       <c r="AB11" t="n">
-        <v>141.7567061900115</v>
+        <v>194.8031421695306</v>
       </c>
       <c r="AC11" t="n">
-        <v>128.2276451080617</v>
+        <v>176.2114036888529</v>
       </c>
       <c r="AD11" t="n">
-        <v>103604.835161036</v>
+        <v>142374.5512700734</v>
       </c>
       <c r="AE11" t="n">
-        <v>141756.7061900115</v>
+        <v>194803.1421695306</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.121259548954214e-06</v>
+        <v>5.575902400051593e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.996527777777779</v>
       </c>
       <c r="AH11" t="n">
-        <v>128227.6451080617</v>
+        <v>176211.4036888529</v>
       </c>
     </row>
     <row r="12">
@@ -54741,28 +54741,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>103.0768675088278</v>
+        <v>141.8465836178652</v>
       </c>
       <c r="AB12" t="n">
-        <v>141.0343175559716</v>
+        <v>194.0807535354907</v>
       </c>
       <c r="AC12" t="n">
-        <v>127.5742002313756</v>
+        <v>175.5579588121668</v>
       </c>
       <c r="AD12" t="n">
-        <v>103076.8675088278</v>
+        <v>141846.5836178652</v>
       </c>
       <c r="AE12" t="n">
-        <v>141034.3175559716</v>
+        <v>194080.7535354907</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.124705869480066e-06</v>
+        <v>5.582059000164483e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.987847222222223</v>
       </c>
       <c r="AH12" t="n">
-        <v>127574.2002313756</v>
+        <v>175557.9588121668</v>
       </c>
     </row>
     <row r="13">
@@ -54847,28 +54847,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>102.7914367476742</v>
+        <v>141.5611528567116</v>
       </c>
       <c r="AB13" t="n">
-        <v>140.6437785962451</v>
+        <v>193.6902145757641</v>
       </c>
       <c r="AC13" t="n">
-        <v>127.2209337618403</v>
+        <v>175.2046923426315</v>
       </c>
       <c r="AD13" t="n">
-        <v>102791.4367476742</v>
+        <v>141561.1528567116</v>
       </c>
       <c r="AE13" t="n">
-        <v>140643.778596245</v>
+        <v>193690.2145757641</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.126441607555131e-06</v>
+        <v>5.585159769564405e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.987847222222223</v>
       </c>
       <c r="AH13" t="n">
-        <v>127220.9337618403</v>
+        <v>175204.6923426315</v>
       </c>
     </row>
   </sheetData>
